--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Lap phieu thu/AF0061 Lap phieu thu.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Lap phieu thu/AF0061 Lap phieu thu.xlsx
@@ -43,7 +43,7 @@
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$Q$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$Q$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
@@ -1403,7 +1403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="232">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2230,12 +2230,6 @@
     <t>Ver 3.0</t>
   </si>
   <si>
-    <t>@DivisionID và @ObjectID</t>
-  </si>
-  <si>
-    <t>Nhận 2 tham số @DivisionID và @ObjectID từ màn hình AF0324 để mở màn hình AF0061</t>
-  </si>
-  <si>
     <t>Ver 2.0</t>
   </si>
   <si>
@@ -2284,29 +2278,33 @@
     <t>OT2002, AT9000, AT2001</t>
   </si>
   <si>
-    <t>Truyền 2 tham số @DivisionID và @ObjectID từ màn hình AF0324 để mở màn hình kế thừa hóa đơn bán hàng AF0274</t>
-  </si>
-  <si>
     <t>Thông tin master và thông tin detail</t>
   </si>
   <si>
     <t xml:space="preserve">Click vào Có </t>
   </si>
   <si>
-    <t>Click vào btn Hóa đơn bán hàng
-Chỉ nhận tham số khi checkbox vào Hóa đơn bán hàng</t>
-  </si>
-  <si>
-    <t>SELECT 
-AT00.VoucherID,AT00.VoucherNo, AT00.InvoiceNo, AT00.InvoiceDate, AT00.InvoiceCode, OT01.ObjectID, AT00.Serial,
-AT00.DebitAccountID, AT00.CreditAccountID, AT00.VoucherTypeID, AT00.VATTypeID, AT00.VATGroupID, OT01.Ana01ID, OT01.Ana02ID, OT01.Ana03ID, OT01.Ana04ID, OT01.Ana05ID,OT02.Ana06ID, OT02.Ana07ID, OT02.Ana08ID, OT02.Ana09ID, OT02.Ana10ID, AT00.RefNo01, AT00.RefNo02, AT00.CurrencyID, OT01.ExchangeRate, OT02.TransactionID,
-ConvertedAmount = (SELECT Sum(ISNULL(ConvertedAmount,0)- ISNULL(DiscountConvertedAmount,0)- ISNULL(CommissionCAmount,0) + ISNULL(VATConvertedAmount, 0)) FROM OT2002 Where OT2002.SOrderID = OT01.SOrderID),
-OriginalAmount = (SELECT Sum(ISNULL(OriginalAmount,0)- ISNULL(DiscountOriginalAmount,0) - ISNULL(CommissionOAmount, 0) + ISNULL(VAToriginalAmount, 0))  FROM OT2002 Where OT2002.SOrderID = OT01.SOrderID) ,
-AT00.BDescription, AT00.TDescription, OT01.SOrderID, AT00.SenderReceiver, AT00.SRDivisionName, AT00.SRAddress
+    <t>Nhận 2 tham số @DivisionID và @VoucherID từ màn hình AF0324 để mở màn hình AF0061</t>
+  </si>
+  <si>
+    <t>@DivisionID và @VoucherID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT 
+ AT00.VoucherID,AT00.VoucherNo, AT00.InvoiceNo, AT00.InvoiceDate, AT00.InvoiceCode, ISNULL(AT00.ObjectID, OT01.ObjectID), AT00.Serial,
+ AT00.DebitAccountID, AT00.CreditAccountID, AT00.VoucherTypeID, AT00.VATTypeID, AT00.VATGroupID, OT01.Ana01ID, OT01.Ana02ID, OT01.Ana03ID, OT01.Ana04ID
+ , OT01.Ana05ID,OT02.Ana06ID, OT02.Ana07ID, OT02.Ana08ID, OT02.Ana09ID, OT02.Ana10ID, AT00.RefNo01, AT00.RefNo02, AT00.CurrencyID, OT01.ExchangeRate
+ , OT02.TransactionID,
+ ConvertedAmount = (SELECT Sum(ISNULL(ConvertedAmount,0)- ISNULL(DiscountConvertedAmount,0)- ISNULL(CommissionCAmount,0) + ISNULL(VATConvertedAmount, 0)) 
+ FROM OT2002 Where OT2002.SOrderID = OT01.SOrderID),
+ OriginalAmount = (SELECT Sum(ISNULL(OriginalAmount,0)- ISNULL(DiscountOriginalAmount,0) - ISNULL(CommissionOAmount, 0) + ISNULL(VAToriginalAmount, 0))  
+ FROM OT2002 Where OT2002.SOrderID = OT01.SOrderID) ,
+ AT00.BDescription, AT00.TDescription, OT01.SOrderID, AT00.SenderReceiver, AT00.SRDivisionName, AT00.SRAddress
 FROM OT2002 OT02
 LEFT JOIN AT9000 AT00 ON AT00.DivisionID = OT02.DivisionID AND AT00.TransactionID = OT02.TransactionID
 INNER JOIN OT2001 OT01 ON OT01.DivisionID = OT02.DivisionID AND OT01.SOrderID = OT02.SOrderID
-WHERE OT01.DivisionID= @DivisionID AND OT01.ObjectID= @ObjectID</t>
+LEFT JOIN At2007 ON (AT2007.InheritVoucherID = OT02.SOrderID  AND OT02.TransactionID = AT2007.InheritTransactionID) 
+      OR (AT2007.OTransactionID = OT02.TransactionID AND AT2007.OrderID = OT02.SOrderID)</t>
   </si>
 </sst>
 </file>
@@ -2844,7 +2842,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3243,9 +3241,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3256,9 +3251,39 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3304,23 +3329,17 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3340,15 +3359,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3370,9 +3380,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3433,6 +3440,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3442,36 +3476,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3481,6 +3485,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3493,15 +3506,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3511,6 +3515,15 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3522,27 +3535,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4475,65 +4467,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="174"/>
-      <c r="B1" s="174"/>
-      <c r="C1" s="176" t="s">
+      <c r="A1" s="183"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="185" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="175" t="s">
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="184" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175" t="s">
+      <c r="H1" s="184"/>
+      <c r="I1" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="175"/>
+      <c r="J1" s="184"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="175" t="s">
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="184" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="174"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="171" t="s">
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="180" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="172"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="181"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="113"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="173"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
       <c r="K13" s="114"/>
       <c r="L13" s="114"/>
       <c r="M13" s="114"/>
@@ -4544,56 +4536,56 @@
       <c r="R13" s="114"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="169"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="179" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
       <c r="K16" s="115"/>
       <c r="L16" s="115"/>
       <c r="M16" s="115"/>
@@ -4604,384 +4596,384 @@
       <c r="R16" s="115"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="169"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="169"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="176"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="176"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="169"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="186"/>
-      <c r="M19" s="186"/>
-      <c r="N19" s="186"/>
-      <c r="O19" s="186"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="186"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="178"/>
+      <c r="O19" s="178"/>
+      <c r="P19" s="178"/>
+      <c r="Q19" s="178"/>
+      <c r="R19" s="178"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="169"/>
-      <c r="Q20" s="169"/>
-      <c r="R20" s="169"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="176"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="176"/>
+      <c r="R20" s="176"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="169"/>
-      <c r="P21" s="169"/>
-      <c r="Q21" s="169"/>
-      <c r="R21" s="169"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
+      <c r="P21" s="176"/>
+      <c r="Q21" s="176"/>
+      <c r="R21" s="176"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="185"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="185"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="185"/>
-      <c r="R22" s="185"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="185"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="185"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="185"/>
-      <c r="R23" s="185"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="187"/>
-      <c r="P26" s="187"/>
-      <c r="Q26" s="187"/>
-      <c r="R26" s="187"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="174"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="189"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="189"/>
-      <c r="M28" s="189"/>
-      <c r="N28" s="189"/>
-      <c r="O28" s="189"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="189"/>
-      <c r="S28" s="188"/>
-      <c r="T28" s="188"/>
-      <c r="U28" s="188"/>
-      <c r="V28" s="188"/>
-      <c r="W28" s="188"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="188"/>
-      <c r="Z28" s="188"/>
-      <c r="AA28" s="188"/>
-      <c r="AB28" s="188"/>
-      <c r="AC28" s="188"/>
-      <c r="AD28" s="188"/>
-      <c r="AE28" s="188"/>
-      <c r="AF28" s="188"/>
-      <c r="AG28" s="188"/>
-      <c r="AH28" s="188"/>
-      <c r="AI28" s="188"/>
-      <c r="AJ28" s="188"/>
-      <c r="AK28" s="188"/>
-      <c r="AL28" s="188"/>
-      <c r="AM28" s="188"/>
-      <c r="AN28" s="188"/>
-      <c r="AO28" s="188"/>
-      <c r="AP28" s="188"/>
-      <c r="AQ28" s="188"/>
-      <c r="AR28" s="188"/>
-      <c r="AS28" s="188"/>
-      <c r="AT28" s="188"/>
-      <c r="AU28" s="188"/>
-      <c r="AV28" s="188"/>
-      <c r="AW28" s="188"/>
-      <c r="AX28" s="188"/>
-      <c r="AY28" s="188"/>
-      <c r="AZ28" s="188"/>
-      <c r="BA28" s="188"/>
-      <c r="BB28" s="188"/>
-      <c r="BC28" s="188"/>
-      <c r="BD28" s="188"/>
-      <c r="BE28" s="188"/>
-      <c r="BF28" s="188"/>
-      <c r="BG28" s="188"/>
-      <c r="BH28" s="188"/>
-      <c r="BI28" s="188"/>
-      <c r="BJ28" s="188"/>
-      <c r="BK28" s="188"/>
-      <c r="BL28" s="188"/>
-      <c r="BM28" s="188"/>
-      <c r="BN28" s="188"/>
-      <c r="BO28" s="188"/>
-      <c r="BP28" s="188"/>
-      <c r="BQ28" s="188"/>
-      <c r="BR28" s="188"/>
-      <c r="BS28" s="188"/>
-      <c r="BT28" s="188"/>
-      <c r="BU28" s="188"/>
-      <c r="BV28" s="188"/>
-      <c r="BW28" s="188"/>
-      <c r="BX28" s="188"/>
-      <c r="BY28" s="188"/>
-      <c r="BZ28" s="188"/>
-      <c r="CA28" s="188"/>
-      <c r="CB28" s="188"/>
-      <c r="CC28" s="188"/>
-      <c r="CD28" s="188"/>
-      <c r="CE28" s="188"/>
-      <c r="CF28" s="188"/>
-      <c r="CG28" s="188"/>
-      <c r="CH28" s="188"/>
-      <c r="CI28" s="188"/>
-      <c r="CJ28" s="188"/>
-      <c r="CK28" s="188"/>
-      <c r="CL28" s="188"/>
-      <c r="CM28" s="188"/>
-      <c r="CN28" s="188"/>
-      <c r="CO28" s="188"/>
-      <c r="CP28" s="188"/>
-      <c r="CQ28" s="188"/>
-      <c r="CR28" s="188"/>
-      <c r="CS28" s="188"/>
-      <c r="CT28" s="188"/>
-      <c r="CU28" s="188"/>
-      <c r="CV28" s="188"/>
-      <c r="CW28" s="188"/>
-      <c r="CX28" s="188"/>
-      <c r="CY28" s="188"/>
-      <c r="CZ28" s="188"/>
-      <c r="DA28" s="188"/>
-      <c r="DB28" s="188"/>
-      <c r="DC28" s="188"/>
-      <c r="DD28" s="188"/>
-      <c r="DE28" s="188"/>
-      <c r="DF28" s="188"/>
-      <c r="DG28" s="188"/>
-      <c r="DH28" s="188"/>
-      <c r="DI28" s="188"/>
-      <c r="DJ28" s="188"/>
-      <c r="DK28" s="188"/>
-      <c r="DL28" s="188"/>
-      <c r="DM28" s="188"/>
-      <c r="DN28" s="188"/>
-      <c r="DO28" s="188"/>
-      <c r="DP28" s="188"/>
-      <c r="DQ28" s="188"/>
-      <c r="DR28" s="188"/>
-      <c r="DS28" s="188"/>
-      <c r="DT28" s="188"/>
-      <c r="DU28" s="188"/>
-      <c r="DV28" s="188"/>
-      <c r="DW28" s="188"/>
-      <c r="DX28" s="188"/>
-      <c r="DY28" s="188"/>
-      <c r="DZ28" s="188"/>
-      <c r="EA28" s="188"/>
-      <c r="EB28" s="188"/>
-      <c r="EC28" s="188"/>
-      <c r="ED28" s="188"/>
-      <c r="EE28" s="188"/>
-      <c r="EF28" s="188"/>
-      <c r="EG28" s="188"/>
-      <c r="EH28" s="188"/>
-      <c r="EI28" s="188"/>
-      <c r="EJ28" s="188"/>
-      <c r="EK28" s="188"/>
-      <c r="EL28" s="188"/>
-      <c r="EM28" s="188"/>
-      <c r="EN28" s="188"/>
-      <c r="EO28" s="188"/>
-      <c r="EP28" s="188"/>
-      <c r="EQ28" s="188"/>
-      <c r="ER28" s="188"/>
-      <c r="ES28" s="188"/>
-      <c r="ET28" s="188"/>
-      <c r="EU28" s="188"/>
-      <c r="EV28" s="188"/>
-      <c r="EW28" s="188"/>
-      <c r="EX28" s="188"/>
-      <c r="EY28" s="188"/>
-      <c r="EZ28" s="188"/>
-      <c r="FA28" s="188"/>
-      <c r="FB28" s="188"/>
-      <c r="FC28" s="188"/>
-      <c r="FD28" s="188"/>
-      <c r="FE28" s="188"/>
-      <c r="FF28" s="188"/>
-      <c r="FG28" s="188"/>
-      <c r="FH28" s="188"/>
-      <c r="FI28" s="188"/>
-      <c r="FJ28" s="188"/>
-      <c r="FK28" s="188"/>
-      <c r="FL28" s="188"/>
-      <c r="FM28" s="188"/>
-      <c r="FN28" s="188"/>
-      <c r="FO28" s="188"/>
-      <c r="FP28" s="188"/>
-      <c r="FQ28" s="188"/>
-      <c r="FR28" s="188"/>
-      <c r="FS28" s="188"/>
-      <c r="FT28" s="188"/>
-      <c r="FU28" s="188"/>
-      <c r="FV28" s="188"/>
-      <c r="FW28" s="188"/>
-      <c r="FX28" s="188"/>
-      <c r="FY28" s="188"/>
-      <c r="FZ28" s="188"/>
-      <c r="GA28" s="188"/>
-      <c r="GB28" s="188"/>
-      <c r="GC28" s="188"/>
-      <c r="GD28" s="188"/>
-      <c r="GE28" s="188"/>
-      <c r="GF28" s="188"/>
-      <c r="GG28" s="188"/>
-      <c r="GH28" s="188"/>
-      <c r="GI28" s="188"/>
-      <c r="GJ28" s="188"/>
-      <c r="GK28" s="188"/>
-      <c r="GL28" s="188"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
+      <c r="AI28" s="173"/>
+      <c r="AJ28" s="173"/>
+      <c r="AK28" s="173"/>
+      <c r="AL28" s="173"/>
+      <c r="AM28" s="173"/>
+      <c r="AN28" s="173"/>
+      <c r="AO28" s="173"/>
+      <c r="AP28" s="173"/>
+      <c r="AQ28" s="173"/>
+      <c r="AR28" s="173"/>
+      <c r="AS28" s="173"/>
+      <c r="AT28" s="173"/>
+      <c r="AU28" s="173"/>
+      <c r="AV28" s="173"/>
+      <c r="AW28" s="173"/>
+      <c r="AX28" s="173"/>
+      <c r="AY28" s="173"/>
+      <c r="AZ28" s="173"/>
+      <c r="BA28" s="173"/>
+      <c r="BB28" s="173"/>
+      <c r="BC28" s="173"/>
+      <c r="BD28" s="173"/>
+      <c r="BE28" s="173"/>
+      <c r="BF28" s="173"/>
+      <c r="BG28" s="173"/>
+      <c r="BH28" s="173"/>
+      <c r="BI28" s="173"/>
+      <c r="BJ28" s="173"/>
+      <c r="BK28" s="173"/>
+      <c r="BL28" s="173"/>
+      <c r="BM28" s="173"/>
+      <c r="BN28" s="173"/>
+      <c r="BO28" s="173"/>
+      <c r="BP28" s="173"/>
+      <c r="BQ28" s="173"/>
+      <c r="BR28" s="173"/>
+      <c r="BS28" s="173"/>
+      <c r="BT28" s="173"/>
+      <c r="BU28" s="173"/>
+      <c r="BV28" s="173"/>
+      <c r="BW28" s="173"/>
+      <c r="BX28" s="173"/>
+      <c r="BY28" s="173"/>
+      <c r="BZ28" s="173"/>
+      <c r="CA28" s="173"/>
+      <c r="CB28" s="173"/>
+      <c r="CC28" s="173"/>
+      <c r="CD28" s="173"/>
+      <c r="CE28" s="173"/>
+      <c r="CF28" s="173"/>
+      <c r="CG28" s="173"/>
+      <c r="CH28" s="173"/>
+      <c r="CI28" s="173"/>
+      <c r="CJ28" s="173"/>
+      <c r="CK28" s="173"/>
+      <c r="CL28" s="173"/>
+      <c r="CM28" s="173"/>
+      <c r="CN28" s="173"/>
+      <c r="CO28" s="173"/>
+      <c r="CP28" s="173"/>
+      <c r="CQ28" s="173"/>
+      <c r="CR28" s="173"/>
+      <c r="CS28" s="173"/>
+      <c r="CT28" s="173"/>
+      <c r="CU28" s="173"/>
+      <c r="CV28" s="173"/>
+      <c r="CW28" s="173"/>
+      <c r="CX28" s="173"/>
+      <c r="CY28" s="173"/>
+      <c r="CZ28" s="173"/>
+      <c r="DA28" s="173"/>
+      <c r="DB28" s="173"/>
+      <c r="DC28" s="173"/>
+      <c r="DD28" s="173"/>
+      <c r="DE28" s="173"/>
+      <c r="DF28" s="173"/>
+      <c r="DG28" s="173"/>
+      <c r="DH28" s="173"/>
+      <c r="DI28" s="173"/>
+      <c r="DJ28" s="173"/>
+      <c r="DK28" s="173"/>
+      <c r="DL28" s="173"/>
+      <c r="DM28" s="173"/>
+      <c r="DN28" s="173"/>
+      <c r="DO28" s="173"/>
+      <c r="DP28" s="173"/>
+      <c r="DQ28" s="173"/>
+      <c r="DR28" s="173"/>
+      <c r="DS28" s="173"/>
+      <c r="DT28" s="173"/>
+      <c r="DU28" s="173"/>
+      <c r="DV28" s="173"/>
+      <c r="DW28" s="173"/>
+      <c r="DX28" s="173"/>
+      <c r="DY28" s="173"/>
+      <c r="DZ28" s="173"/>
+      <c r="EA28" s="173"/>
+      <c r="EB28" s="173"/>
+      <c r="EC28" s="173"/>
+      <c r="ED28" s="173"/>
+      <c r="EE28" s="173"/>
+      <c r="EF28" s="173"/>
+      <c r="EG28" s="173"/>
+      <c r="EH28" s="173"/>
+      <c r="EI28" s="173"/>
+      <c r="EJ28" s="173"/>
+      <c r="EK28" s="173"/>
+      <c r="EL28" s="173"/>
+      <c r="EM28" s="173"/>
+      <c r="EN28" s="173"/>
+      <c r="EO28" s="173"/>
+      <c r="EP28" s="173"/>
+      <c r="EQ28" s="173"/>
+      <c r="ER28" s="173"/>
+      <c r="ES28" s="173"/>
+      <c r="ET28" s="173"/>
+      <c r="EU28" s="173"/>
+      <c r="EV28" s="173"/>
+      <c r="EW28" s="173"/>
+      <c r="EX28" s="173"/>
+      <c r="EY28" s="173"/>
+      <c r="EZ28" s="173"/>
+      <c r="FA28" s="173"/>
+      <c r="FB28" s="173"/>
+      <c r="FC28" s="173"/>
+      <c r="FD28" s="173"/>
+      <c r="FE28" s="173"/>
+      <c r="FF28" s="173"/>
+      <c r="FG28" s="173"/>
+      <c r="FH28" s="173"/>
+      <c r="FI28" s="173"/>
+      <c r="FJ28" s="173"/>
+      <c r="FK28" s="173"/>
+      <c r="FL28" s="173"/>
+      <c r="FM28" s="173"/>
+      <c r="FN28" s="173"/>
+      <c r="FO28" s="173"/>
+      <c r="FP28" s="173"/>
+      <c r="FQ28" s="173"/>
+      <c r="FR28" s="173"/>
+      <c r="FS28" s="173"/>
+      <c r="FT28" s="173"/>
+      <c r="FU28" s="173"/>
+      <c r="FV28" s="173"/>
+      <c r="FW28" s="173"/>
+      <c r="FX28" s="173"/>
+      <c r="FY28" s="173"/>
+      <c r="FZ28" s="173"/>
+      <c r="GA28" s="173"/>
+      <c r="GB28" s="173"/>
+      <c r="GC28" s="173"/>
+      <c r="GD28" s="173"/>
+      <c r="GE28" s="173"/>
+      <c r="GF28" s="173"/>
+      <c r="GG28" s="173"/>
+      <c r="GH28" s="173"/>
+      <c r="GI28" s="173"/>
+      <c r="GJ28" s="173"/>
+      <c r="GK28" s="173"/>
+      <c r="GL28" s="173"/>
       <c r="GM28" s="116"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="187"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="187"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="174"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="190"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="190"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
       <c r="K30" s="117"/>
       <c r="L30" s="117"/>
       <c r="M30" s="117"/>
@@ -4992,16 +4984,16 @@
       <c r="R30" s="117"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="190"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="190"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
       <c r="K31" s="117"/>
       <c r="L31" s="117"/>
       <c r="M31" s="117"/>
@@ -5013,28 +5005,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5048,6 +5018,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5074,14 +5066,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5274,11 +5266,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="255" t="s">
+      <c r="E27" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="256"/>
-      <c r="G27" s="257"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="262"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5602,10 +5594,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="204"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5632,8 +5624,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5672,14 +5664,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="201" t="s">
+      <c r="E4" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="201"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5" s="40">
@@ -5694,14 +5686,14 @@
       <c r="D5" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="202" t="s">
+      <c r="E5" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
     </row>
     <row r="6" spans="1:10" s="127" customFormat="1" ht="25.5" customHeight="1">
       <c r="A6" s="128">
@@ -5716,14 +5708,14 @@
       <c r="D6" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="204" t="s">
+      <c r="E6" s="208" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
-      <c r="J6" s="206"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="210"/>
     </row>
     <row r="7" spans="1:10" s="151" customFormat="1" ht="24.75" customHeight="1">
       <c r="A7" s="88">
@@ -5738,14 +5730,14 @@
       <c r="D7" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="191" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="193"/>
+      <c r="E7" s="198" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="200"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="89">
@@ -5756,12 +5748,12 @@
       </c>
       <c r="C8" s="75"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="196"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="90">
@@ -5772,12 +5764,12 @@
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="91">
@@ -5788,12 +5780,12 @@
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="92">
@@ -5804,12 +5796,12 @@
       </c>
       <c r="C11" s="75"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="93">
@@ -5820,12 +5812,12 @@
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="94">
@@ -5836,12 +5828,12 @@
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="95">
@@ -5852,12 +5844,12 @@
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="199"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5868,12 +5860,12 @@
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="87">
@@ -5884,12 +5876,12 @@
       </c>
       <c r="C16" s="75"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="207"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="88">
@@ -5900,12 +5892,12 @@
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="207"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="89">
@@ -5916,12 +5908,12 @@
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="207"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="90">
@@ -5932,12 +5924,12 @@
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="207"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="91">
@@ -5948,12 +5940,12 @@
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="207"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="92">
@@ -5964,12 +5956,12 @@
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="207"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="93">
@@ -5980,12 +5972,12 @@
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="207"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="94">
@@ -5996,12 +5988,12 @@
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="95">
@@ -6012,12 +6004,12 @@
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="207"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6028,12 +6020,12 @@
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="207"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6044,12 +6036,12 @@
       </c>
       <c r="C26" s="75"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="207"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="87">
@@ -6060,12 +6052,12 @@
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="207"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="88">
@@ -6076,12 +6068,12 @@
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="207"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="89">
@@ -6092,12 +6084,12 @@
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="207"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="90">
@@ -6108,12 +6100,12 @@
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="207"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="91">
@@ -6124,12 +6116,12 @@
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="207"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="92">
@@ -6140,12 +6132,12 @@
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="93">
@@ -6156,12 +6148,12 @@
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="207"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="94">
@@ -6172,12 +6164,12 @@
       </c>
       <c r="C34" s="75"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="207"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="95">
@@ -6188,12 +6180,12 @@
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="207"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6204,12 +6196,12 @@
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="207"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="87">
@@ -6220,12 +6212,12 @@
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="207"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="88">
@@ -6236,12 +6228,12 @@
       </c>
       <c r="C38" s="75"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="207"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
+      <c r="J38" s="194"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="89">
@@ -6252,12 +6244,12 @@
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="207"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="207"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="194"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="90">
@@ -6268,12 +6260,12 @@
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="207"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="207"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="194"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="91">
@@ -6284,12 +6276,12 @@
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="207"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="194"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="92">
@@ -6300,32 +6292,23 @@
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="207"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="207"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="194"/>
+      <c r="J42" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6341,14 +6324,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6390,10 +6382,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="204"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6421,8 +6413,8 @@
       <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6450,20 +6442,20 @@
       <c r="J2" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="208" t="s">
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="209"/>
+      <c r="J4" s="212"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6474,10 +6466,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="217" t="s">
+      <c r="I5" s="220" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="218"/>
+      <c r="J5" s="221"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6488,8 +6480,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="220"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="223"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6500,8 +6492,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="220"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="223"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6512,8 +6504,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="220"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="223"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6524,8 +6516,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="220"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="223"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6536,8 +6528,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="222"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="225"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6548,10 +6540,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="208" t="s">
+      <c r="I11" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="209"/>
+      <c r="J11" s="212"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6562,10 +6554,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="211" t="s">
+      <c r="I12" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="212"/>
+      <c r="J12" s="215"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6576,8 +6568,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="214"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="217"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6588,8 +6580,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="214"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6600,8 +6592,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="214"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="217"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6612,8 +6604,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="214"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="217"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6624,8 +6616,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="214"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="217"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6636,8 +6628,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="214"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6648,8 +6640,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="214"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6660,8 +6652,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="214"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="217"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6672,8 +6664,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="214"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="217"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6684,8 +6676,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="214"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="217"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6696,8 +6688,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="214"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="217"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6708,8 +6700,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="214"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="217"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6720,8 +6712,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="214"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="217"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6732,8 +6724,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="214"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="217"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6744,8 +6736,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="214"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="217"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6756,8 +6748,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="214"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="217"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6768,8 +6760,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="214"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="217"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6780,8 +6772,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="214"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="217"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6792,8 +6784,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="214"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="217"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6804,8 +6796,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="214"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="217"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6816,8 +6808,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="214"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="217"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6828,8 +6820,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="214"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="217"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6840,8 +6832,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="214"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="217"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6852,8 +6844,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="214"/>
+      <c r="I36" s="216"/>
+      <c r="J36" s="217"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6864,8 +6856,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="214"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="217"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6876,8 +6868,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="214"/>
+      <c r="I38" s="216"/>
+      <c r="J38" s="217"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6888,8 +6880,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="214"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="217"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6900,8 +6892,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="214"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="217"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6912,8 +6904,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="214"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="217"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6924,8 +6916,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="214"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="217"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6936,8 +6928,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="215"/>
-      <c r="J43" s="216"/>
+      <c r="I43" s="218"/>
+      <c r="J43" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6994,12 +6986,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7007,15 +6999,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="223" t="s">
+      <c r="G1" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="224"/>
-      <c r="I1" s="225" t="s">
+      <c r="H1" s="227"/>
+      <c r="I1" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="226"/>
-      <c r="K1" s="227"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="230"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7029,10 +7021,10 @@
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7040,16 +7032,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="G2" s="223" t="s">
+      <c r="G2" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="I2" s="225" t="str">
+      <c r="H2" s="227"/>
+      <c r="I2" s="228" t="str">
         <f>'Update History'!F2</f>
         <v>Lập phiếu thu</v>
       </c>
-      <c r="J2" s="226"/>
-      <c r="K2" s="227"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="230"/>
       <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
@@ -9064,10 +9056,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K6"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9091,7 +9083,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="233" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9125,7 +9117,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="236"/>
+      <c r="A2" s="234"/>
       <c r="B2" s="120"/>
       <c r="C2" s="146"/>
       <c r="D2" s="31" t="s">
@@ -9175,15 +9167,15 @@
       <c r="F4" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="200" t="s">
+      <c r="G4" s="204" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200" t="s">
+      <c r="H4" s="204"/>
+      <c r="I4" s="204" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="152">
@@ -9197,437 +9189,432 @@
       </c>
       <c r="D5" s="152"/>
       <c r="E5" s="153" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="F5" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="G5" s="233" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="234"/>
-      <c r="I5" s="237" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="238"/>
-      <c r="K5" s="239"/>
-    </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A6" s="152">
-        <v>2</v>
-      </c>
-      <c r="B6" s="152" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="152">
-        <v>51</v>
-      </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="162" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="154" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="233" t="s">
+      <c r="G5" s="231" t="s">
         <v>229</v>
       </c>
-      <c r="H6" s="234"/>
-      <c r="I6" s="240" t="s">
-        <v>232</v>
-      </c>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
-    </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
+      <c r="H5" s="232"/>
+      <c r="I5" s="235" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" s="236"/>
+      <c r="K5" s="237"/>
+    </row>
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
+      <c r="A6" s="33">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="239"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="242"/>
+    </row>
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="230"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="242"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="239"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="242"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="230"/>
+      <c r="G9" s="238"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="242"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="232"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="229"/>
-      <c r="K10" s="230"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="239"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="242"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="232"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="230"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="242"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="228"/>
-      <c r="J12" s="229"/>
-      <c r="K12" s="230"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="242"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="232"/>
-      <c r="I13" s="228"/>
-      <c r="J13" s="229"/>
-      <c r="K13" s="230"/>
+      <c r="G13" s="238"/>
+      <c r="H13" s="239"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="242"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="228"/>
-      <c r="J14" s="229"/>
-      <c r="K14" s="230"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="240"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="242"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="232"/>
-      <c r="I15" s="228"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="230"/>
-    </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="G15" s="238"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="242"/>
+    </row>
+    <row r="16" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A16" s="33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="228"/>
-      <c r="J16" s="229"/>
-      <c r="K16" s="230"/>
-    </row>
-    <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
+      <c r="G16" s="238"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="242"/>
+    </row>
+    <row r="17" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="232"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="229"/>
-      <c r="K17" s="230"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="239"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="242"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="231"/>
-      <c r="H18" s="232"/>
-      <c r="I18" s="228"/>
-      <c r="J18" s="229"/>
-      <c r="K18" s="230"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="239"/>
+      <c r="I18" s="240"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="242"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="230"/>
-    </row>
-    <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="G19" s="238"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="240"/>
+      <c r="J19" s="241"/>
+      <c r="K19" s="242"/>
+    </row>
+    <row r="20" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A20" s="33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="232"/>
-      <c r="I20" s="228"/>
-      <c r="J20" s="229"/>
-      <c r="K20" s="230"/>
-    </row>
-    <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
+      <c r="G20" s="238"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="240"/>
+      <c r="J20" s="241"/>
+      <c r="K20" s="242"/>
+    </row>
+    <row r="21" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="232"/>
-      <c r="I21" s="228"/>
-      <c r="J21" s="229"/>
-      <c r="K21" s="230"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="240"/>
+      <c r="J21" s="241"/>
+      <c r="K21" s="242"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="228"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="230"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="240"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="242"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="197"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="230"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="240"/>
+      <c r="J23" s="241"/>
+      <c r="K23" s="242"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="228"/>
-      <c r="J24" s="229"/>
-      <c r="K24" s="230"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="240"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="242"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="228"/>
-      <c r="J25" s="229"/>
-      <c r="K25" s="230"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="240"/>
+      <c r="J25" s="241"/>
+      <c r="K25" s="242"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="230"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="240"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="242"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="197"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="228"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="230"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="240"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="242"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="228"/>
-      <c r="J28" s="229"/>
-      <c r="K28" s="230"/>
-    </row>
-    <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="G28" s="195"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="240"/>
+      <c r="J28" s="241"/>
+      <c r="K28" s="242"/>
+    </row>
+    <row r="29" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A29" s="33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="228"/>
-      <c r="J29" s="229"/>
-      <c r="K29" s="230"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="240"/>
+      <c r="J29" s="241"/>
+      <c r="K29" s="242"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="228"/>
-      <c r="J30" s="229"/>
-      <c r="K30" s="230"/>
-    </row>
-    <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
+      <c r="G30" s="195"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="240"/>
+      <c r="J30" s="241"/>
+      <c r="K30" s="242"/>
+    </row>
+    <row r="31" spans="1:19" ht="11.25">
       <c r="A31" s="33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="228"/>
-      <c r="J31" s="229"/>
-      <c r="K31" s="230"/>
-    </row>
-    <row r="32" spans="1:19" ht="11.25">
+      <c r="G31" s="195"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="240"/>
+      <c r="J31" s="241"/>
+      <c r="K31" s="242"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+    </row>
+    <row r="32" spans="1:19" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="228"/>
-      <c r="J32" s="229"/>
-      <c r="K32" s="230"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="240"/>
+      <c r="J32" s="241"/>
+      <c r="K32" s="242"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9638,18 +9625,18 @@
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="228"/>
-      <c r="J33" s="229"/>
-      <c r="K33" s="230"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="240"/>
+      <c r="J33" s="241"/>
+      <c r="K33" s="242"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9660,18 +9647,18 @@
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="228"/>
-      <c r="J34" s="229"/>
-      <c r="K34" s="230"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="241"/>
+      <c r="K34" s="242"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9682,18 +9669,18 @@
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="228"/>
-      <c r="J35" s="229"/>
-      <c r="K35" s="230"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="240"/>
+      <c r="J35" s="241"/>
+      <c r="K35" s="242"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9704,18 +9691,18 @@
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="228"/>
-      <c r="J36" s="229"/>
-      <c r="K36" s="230"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="240"/>
+      <c r="J36" s="241"/>
+      <c r="K36" s="242"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9726,18 +9713,18 @@
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="228"/>
-      <c r="J37" s="229"/>
-      <c r="K37" s="230"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="240"/>
+      <c r="J37" s="241"/>
+      <c r="K37" s="242"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9748,18 +9735,18 @@
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="197"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="228"/>
-      <c r="J38" s="229"/>
-      <c r="K38" s="230"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="240"/>
+      <c r="J38" s="241"/>
+      <c r="K38" s="242"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9770,18 +9757,18 @@
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="228"/>
-      <c r="J39" s="229"/>
-      <c r="K39" s="230"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="240"/>
+      <c r="J39" s="241"/>
+      <c r="K39" s="242"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9792,18 +9779,18 @@
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="197"/>
-      <c r="H40" s="199"/>
-      <c r="I40" s="228"/>
-      <c r="J40" s="229"/>
-      <c r="K40" s="230"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="240"/>
+      <c r="J40" s="241"/>
+      <c r="K40" s="242"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9814,18 +9801,18 @@
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="197"/>
-      <c r="H41" s="199"/>
-      <c r="I41" s="228"/>
-      <c r="J41" s="229"/>
-      <c r="K41" s="230"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="241"/>
+      <c r="K41" s="242"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9836,18 +9823,18 @@
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="199"/>
-      <c r="I42" s="228"/>
-      <c r="J42" s="229"/>
-      <c r="K42" s="230"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="240"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="242"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9858,18 +9845,18 @@
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="197"/>
-      <c r="H43" s="199"/>
-      <c r="I43" s="228"/>
-      <c r="J43" s="229"/>
-      <c r="K43" s="230"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="240"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="242"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9880,18 +9867,18 @@
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="197"/>
-      <c r="H44" s="199"/>
-      <c r="I44" s="228"/>
-      <c r="J44" s="229"/>
-      <c r="K44" s="230"/>
+      <c r="G44" s="195"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="242"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9902,18 +9889,18 @@
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="197"/>
-      <c r="H45" s="199"/>
-      <c r="I45" s="228"/>
-      <c r="J45" s="229"/>
-      <c r="K45" s="230"/>
+      <c r="G45" s="195"/>
+      <c r="H45" s="197"/>
+      <c r="I45" s="240"/>
+      <c r="J45" s="241"/>
+      <c r="K45" s="242"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9924,18 +9911,18 @@
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="197"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="228"/>
-      <c r="J46" s="229"/>
-      <c r="K46" s="230"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="197"/>
+      <c r="I46" s="240"/>
+      <c r="J46" s="241"/>
+      <c r="K46" s="242"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9946,18 +9933,18 @@
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="199"/>
-      <c r="I47" s="228"/>
-      <c r="J47" s="229"/>
-      <c r="K47" s="230"/>
+      <c r="G47" s="195"/>
+      <c r="H47" s="197"/>
+      <c r="I47" s="240"/>
+      <c r="J47" s="241"/>
+      <c r="K47" s="242"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9968,18 +9955,18 @@
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="197"/>
-      <c r="H48" s="199"/>
-      <c r="I48" s="228"/>
-      <c r="J48" s="229"/>
-      <c r="K48" s="230"/>
+      <c r="G48" s="195"/>
+      <c r="H48" s="197"/>
+      <c r="I48" s="240"/>
+      <c r="J48" s="241"/>
+      <c r="K48" s="242"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9990,18 +9977,18 @@
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="197"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="228"/>
-      <c r="J49" s="229"/>
-      <c r="K49" s="230"/>
+      <c r="G49" s="195"/>
+      <c r="H49" s="197"/>
+      <c r="I49" s="240"/>
+      <c r="J49" s="241"/>
+      <c r="K49" s="242"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10012,18 +9999,18 @@
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="197"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="228"/>
-      <c r="J50" s="229"/>
-      <c r="K50" s="230"/>
+      <c r="G50" s="195"/>
+      <c r="H50" s="197"/>
+      <c r="I50" s="240"/>
+      <c r="J50" s="241"/>
+      <c r="K50" s="242"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10034,18 +10021,18 @@
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="228"/>
-      <c r="J51" s="229"/>
-      <c r="K51" s="230"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="197"/>
+      <c r="I51" s="240"/>
+      <c r="J51" s="241"/>
+      <c r="K51" s="242"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10056,18 +10043,18 @@
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="199"/>
-      <c r="I52" s="228"/>
-      <c r="J52" s="229"/>
-      <c r="K52" s="230"/>
+      <c r="G52" s="195"/>
+      <c r="H52" s="197"/>
+      <c r="I52" s="240"/>
+      <c r="J52" s="241"/>
+      <c r="K52" s="242"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10078,18 +10065,18 @@
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="197"/>
-      <c r="H53" s="199"/>
-      <c r="I53" s="228"/>
-      <c r="J53" s="229"/>
-      <c r="K53" s="230"/>
+      <c r="G53" s="195"/>
+      <c r="H53" s="197"/>
+      <c r="I53" s="240"/>
+      <c r="J53" s="241"/>
+      <c r="K53" s="242"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10100,18 +10087,18 @@
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1">
       <c r="A54" s="33">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="197"/>
-      <c r="H54" s="199"/>
-      <c r="I54" s="228"/>
-      <c r="J54" s="229"/>
-      <c r="K54" s="230"/>
+      <c r="G54" s="195"/>
+      <c r="H54" s="197"/>
+      <c r="I54" s="240"/>
+      <c r="J54" s="241"/>
+      <c r="K54" s="242"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10122,18 +10109,18 @@
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1">
       <c r="A55" s="33">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="197"/>
-      <c r="H55" s="199"/>
-      <c r="I55" s="228"/>
-      <c r="J55" s="229"/>
-      <c r="K55" s="230"/>
+      <c r="G55" s="195"/>
+      <c r="H55" s="197"/>
+      <c r="I55" s="240"/>
+      <c r="J55" s="241"/>
+      <c r="K55" s="242"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10142,141 +10129,117 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="12" customHeight="1">
-      <c r="A56" s="33">
-        <v>52</v>
-      </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="197"/>
-      <c r="H56" s="199"/>
-      <c r="I56" s="228"/>
-      <c r="J56" s="229"/>
-      <c r="K56" s="230"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+  <mergeCells count="105">
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F55">
       <formula1>"Text,Number,Boolean,Datatime,Object,Structure"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10292,7 +10255,7 @@
   <dimension ref="A1:U1048467"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:N8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10320,24 +10283,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="244" t="str">
+      <c r="J1" s="249" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="244"/>
+      <c r="K1" s="249"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10362,22 +10325,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="244" t="str">
+      <c r="J2" s="249" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="244"/>
+      <c r="K2" s="249"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10432,12 +10395,12 @@
       <c r="J4" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="245" t="s">
+      <c r="K4" s="250" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="247"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="252"/>
       <c r="O4" s="147" t="s">
         <v>56</v>
       </c>
@@ -10477,12 +10440,12 @@
       <c r="J5" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="194" t="s">
+      <c r="K5" s="201" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="195"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="196"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="203"/>
       <c r="O5" s="121" t="s">
         <v>181</v>
       </c>
@@ -10502,7 +10465,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="131"/>
       <c r="D6" s="132"/>
@@ -10524,12 +10487,12 @@
       <c r="J6" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="248" t="s">
+      <c r="K6" s="246" t="s">
         <v>194</v>
       </c>
-      <c r="L6" s="249"/>
-      <c r="M6" s="249"/>
-      <c r="N6" s="250"/>
+      <c r="L6" s="247"/>
+      <c r="M6" s="247"/>
+      <c r="N6" s="248"/>
       <c r="O6" s="135" t="s">
         <v>193</v>
       </c>
@@ -10548,7 +10511,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C7" s="131"/>
       <c r="D7" s="127"/>
@@ -10570,12 +10533,12 @@
       <c r="J7" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="248" t="s">
+      <c r="K7" s="246" t="s">
         <v>188</v>
       </c>
-      <c r="L7" s="249"/>
-      <c r="M7" s="249"/>
-      <c r="N7" s="250"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="247"/>
+      <c r="N7" s="248"/>
       <c r="O7" s="135" t="s">
         <v>189</v>
       </c>
@@ -10590,7 +10553,7 @@
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
-    <row r="8" spans="1:21" s="164" customFormat="1" ht="183.75" customHeight="1">
+    <row r="8" spans="1:21" s="163" customFormat="1" ht="183.75" customHeight="1">
       <c r="A8" s="150">
         <v>4</v>
       </c>
@@ -10601,16 +10564,16 @@
         <v>51</v>
       </c>
       <c r="D8" s="161" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E8" s="161" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F8" s="156" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G8" s="155" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H8" s="156" t="s">
         <v>187</v>
@@ -10619,56 +10582,56 @@
         <v>55</v>
       </c>
       <c r="J8" s="157" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="253" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="158" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="K8" s="251" t="s">
-        <v>233</v>
-      </c>
-      <c r="L8" s="252"/>
-      <c r="M8" s="252"/>
-      <c r="N8" s="253"/>
-      <c r="O8" s="158" t="s">
+      <c r="Q8" s="156" t="s">
         <v>216</v>
       </c>
-      <c r="P8" s="158" t="s">
+      <c r="R8" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="Q8" s="156" t="s">
+      <c r="S8" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="R8" s="155" t="s">
-        <v>219</v>
-      </c>
-      <c r="S8" s="159" t="s">
-        <v>220</v>
-      </c>
-      <c r="T8" s="163"/>
-      <c r="U8" s="163"/>
-    </row>
-    <row r="9" spans="1:21" s="164" customFormat="1" ht="45" customHeight="1">
+      <c r="T8" s="162"/>
+      <c r="U8" s="162"/>
+    </row>
+    <row r="9" spans="1:21" s="163" customFormat="1" ht="45" customHeight="1">
       <c r="A9" s="40">
         <v>5</v>
       </c>
-      <c r="B9" s="258"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="259"/>
-      <c r="J9" s="260"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="262"/>
-      <c r="M9" s="262"/>
-      <c r="N9" s="263"/>
-      <c r="O9" s="264"/>
-      <c r="P9" s="264"/>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="259"/>
-      <c r="S9" s="259"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="163"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="258"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="162"/>
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A10" s="33">
@@ -10683,10 +10646,10 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
-      <c r="K10" s="228"/>
-      <c r="L10" s="229"/>
-      <c r="M10" s="229"/>
-      <c r="N10" s="230"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="241"/>
+      <c r="M10" s="241"/>
+      <c r="N10" s="242"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
@@ -10708,10 +10671,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="78"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="242"/>
-      <c r="M11" s="242"/>
-      <c r="N11" s="243"/>
+      <c r="K11" s="243"/>
+      <c r="L11" s="244"/>
+      <c r="M11" s="244"/>
+      <c r="N11" s="245"/>
       <c r="O11" s="85"/>
       <c r="P11" s="85"/>
       <c r="Q11" s="74"/>
@@ -10733,10 +10696,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="78"/>
-      <c r="K12" s="241"/>
-      <c r="L12" s="242"/>
-      <c r="M12" s="242"/>
-      <c r="N12" s="243"/>
+      <c r="K12" s="243"/>
+      <c r="L12" s="244"/>
+      <c r="M12" s="244"/>
+      <c r="N12" s="245"/>
       <c r="O12" s="81"/>
       <c r="P12" s="81"/>
       <c r="Q12" s="74"/>
@@ -10758,10 +10721,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="78"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="242"/>
-      <c r="M13" s="242"/>
-      <c r="N13" s="243"/>
+      <c r="K13" s="243"/>
+      <c r="L13" s="244"/>
+      <c r="M13" s="244"/>
+      <c r="N13" s="245"/>
       <c r="O13" s="81"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="74"/>
@@ -10783,10 +10746,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="78"/>
-      <c r="K14" s="241"/>
-      <c r="L14" s="242"/>
-      <c r="M14" s="242"/>
-      <c r="N14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="244"/>
+      <c r="M14" s="244"/>
+      <c r="N14" s="245"/>
       <c r="O14" s="77"/>
       <c r="P14" s="77"/>
       <c r="Q14" s="74"/>
@@ -10808,10 +10771,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="78"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="242"/>
-      <c r="M15" s="242"/>
-      <c r="N15" s="243"/>
+      <c r="K15" s="243"/>
+      <c r="L15" s="244"/>
+      <c r="M15" s="244"/>
+      <c r="N15" s="245"/>
       <c r="O15" s="77"/>
       <c r="P15" s="77"/>
       <c r="Q15" s="74"/>
@@ -10833,10 +10796,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="241"/>
-      <c r="L16" s="242"/>
-      <c r="M16" s="242"/>
-      <c r="N16" s="243"/>
+      <c r="K16" s="243"/>
+      <c r="L16" s="244"/>
+      <c r="M16" s="244"/>
+      <c r="N16" s="245"/>
       <c r="O16" s="70"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="74"/>
@@ -10858,10 +10821,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="242"/>
-      <c r="M17" s="242"/>
-      <c r="N17" s="243"/>
+      <c r="K17" s="243"/>
+      <c r="L17" s="244"/>
+      <c r="M17" s="244"/>
+      <c r="N17" s="245"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="74"/>
@@ -10883,10 +10846,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="241"/>
-      <c r="L18" s="242"/>
-      <c r="M18" s="242"/>
-      <c r="N18" s="243"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="244"/>
+      <c r="M18" s="244"/>
+      <c r="N18" s="245"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="74"/>
@@ -10908,10 +10871,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="242"/>
-      <c r="M19" s="242"/>
-      <c r="N19" s="243"/>
+      <c r="K19" s="243"/>
+      <c r="L19" s="244"/>
+      <c r="M19" s="244"/>
+      <c r="N19" s="245"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="74"/>
@@ -10933,10 +10896,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="241"/>
-      <c r="L20" s="242"/>
-      <c r="M20" s="242"/>
-      <c r="N20" s="243"/>
+      <c r="K20" s="243"/>
+      <c r="L20" s="244"/>
+      <c r="M20" s="244"/>
+      <c r="N20" s="245"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="74"/>
@@ -10958,10 +10921,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="241"/>
-      <c r="L21" s="242"/>
-      <c r="M21" s="242"/>
-      <c r="N21" s="243"/>
+      <c r="K21" s="243"/>
+      <c r="L21" s="244"/>
+      <c r="M21" s="244"/>
+      <c r="N21" s="245"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="74"/>
@@ -10983,10 +10946,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="242"/>
-      <c r="M22" s="242"/>
-      <c r="N22" s="243"/>
+      <c r="K22" s="243"/>
+      <c r="L22" s="244"/>
+      <c r="M22" s="244"/>
+      <c r="N22" s="245"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="74"/>
@@ -11008,10 +10971,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="243"/>
+      <c r="K23" s="243"/>
+      <c r="L23" s="244"/>
+      <c r="M23" s="244"/>
+      <c r="N23" s="245"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="74"/>
@@ -11033,10 +10996,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="241"/>
-      <c r="L24" s="242"/>
-      <c r="M24" s="242"/>
-      <c r="N24" s="243"/>
+      <c r="K24" s="243"/>
+      <c r="L24" s="244"/>
+      <c r="M24" s="244"/>
+      <c r="N24" s="245"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="74"/>
@@ -11058,10 +11021,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="241"/>
-      <c r="L25" s="242"/>
-      <c r="M25" s="242"/>
-      <c r="N25" s="243"/>
+      <c r="K25" s="243"/>
+      <c r="L25" s="244"/>
+      <c r="M25" s="244"/>
+      <c r="N25" s="245"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="74"/>
@@ -11083,10 +11046,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="242"/>
-      <c r="N26" s="243"/>
+      <c r="K26" s="243"/>
+      <c r="L26" s="244"/>
+      <c r="M26" s="244"/>
+      <c r="N26" s="245"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="74"/>
@@ -11108,10 +11071,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="242"/>
-      <c r="M27" s="242"/>
-      <c r="N27" s="243"/>
+      <c r="K27" s="243"/>
+      <c r="L27" s="244"/>
+      <c r="M27" s="244"/>
+      <c r="N27" s="245"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="74"/>
@@ -11133,10 +11096,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="242"/>
-      <c r="M28" s="242"/>
-      <c r="N28" s="243"/>
+      <c r="K28" s="243"/>
+      <c r="L28" s="244"/>
+      <c r="M28" s="244"/>
+      <c r="N28" s="245"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="74"/>
@@ -11158,10 +11121,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="242"/>
-      <c r="M29" s="242"/>
-      <c r="N29" s="243"/>
+      <c r="K29" s="243"/>
+      <c r="L29" s="244"/>
+      <c r="M29" s="244"/>
+      <c r="N29" s="245"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="74"/>
@@ -11183,10 +11146,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="242"/>
-      <c r="M30" s="242"/>
-      <c r="N30" s="243"/>
+      <c r="K30" s="243"/>
+      <c r="L30" s="244"/>
+      <c r="M30" s="244"/>
+      <c r="N30" s="245"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="74"/>
@@ -11208,10 +11171,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="241"/>
-      <c r="L31" s="242"/>
-      <c r="M31" s="242"/>
-      <c r="N31" s="243"/>
+      <c r="K31" s="243"/>
+      <c r="L31" s="244"/>
+      <c r="M31" s="244"/>
+      <c r="N31" s="245"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="74"/>
@@ -11233,10 +11196,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="241"/>
-      <c r="L32" s="242"/>
-      <c r="M32" s="242"/>
-      <c r="N32" s="243"/>
+      <c r="K32" s="243"/>
+      <c r="L32" s="244"/>
+      <c r="M32" s="244"/>
+      <c r="N32" s="245"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="74"/>
@@ -11258,10 +11221,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="241"/>
-      <c r="L33" s="242"/>
-      <c r="M33" s="242"/>
-      <c r="N33" s="243"/>
+      <c r="K33" s="243"/>
+      <c r="L33" s="244"/>
+      <c r="M33" s="244"/>
+      <c r="N33" s="245"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="74"/>
@@ -11283,10 +11246,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="78"/>
-      <c r="K34" s="241"/>
-      <c r="L34" s="242"/>
-      <c r="M34" s="242"/>
-      <c r="N34" s="243"/>
+      <c r="K34" s="243"/>
+      <c r="L34" s="244"/>
+      <c r="M34" s="244"/>
+      <c r="N34" s="245"/>
       <c r="O34" s="81"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="74"/>
@@ -11308,10 +11271,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="241"/>
-      <c r="L35" s="242"/>
-      <c r="M35" s="242"/>
-      <c r="N35" s="243"/>
+      <c r="K35" s="243"/>
+      <c r="L35" s="244"/>
+      <c r="M35" s="244"/>
+      <c r="N35" s="245"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="74"/>
@@ -11333,10 +11296,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="241"/>
-      <c r="L36" s="242"/>
-      <c r="M36" s="242"/>
-      <c r="N36" s="243"/>
+      <c r="K36" s="243"/>
+      <c r="L36" s="244"/>
+      <c r="M36" s="244"/>
+      <c r="N36" s="245"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="74"/>
@@ -11358,10 +11321,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
-      <c r="M37" s="242"/>
-      <c r="N37" s="243"/>
+      <c r="K37" s="243"/>
+      <c r="L37" s="244"/>
+      <c r="M37" s="244"/>
+      <c r="N37" s="245"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="74"/>
@@ -11383,10 +11346,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="241"/>
-      <c r="L38" s="242"/>
-      <c r="M38" s="242"/>
-      <c r="N38" s="243"/>
+      <c r="K38" s="243"/>
+      <c r="L38" s="244"/>
+      <c r="M38" s="244"/>
+      <c r="N38" s="245"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="74"/>
@@ -11408,10 +11371,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="241"/>
-      <c r="L39" s="242"/>
-      <c r="M39" s="242"/>
-      <c r="N39" s="243"/>
+      <c r="K39" s="243"/>
+      <c r="L39" s="244"/>
+      <c r="M39" s="244"/>
+      <c r="N39" s="245"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="74"/>
@@ -11433,10 +11396,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="241"/>
-      <c r="L40" s="242"/>
-      <c r="M40" s="242"/>
-      <c r="N40" s="243"/>
+      <c r="K40" s="243"/>
+      <c r="L40" s="244"/>
+      <c r="M40" s="244"/>
+      <c r="N40" s="245"/>
       <c r="O40" s="72"/>
       <c r="P40" s="72"/>
       <c r="Q40" s="74"/>
@@ -11458,10 +11421,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="241"/>
-      <c r="L41" s="242"/>
-      <c r="M41" s="242"/>
-      <c r="N41" s="243"/>
+      <c r="K41" s="243"/>
+      <c r="L41" s="244"/>
+      <c r="M41" s="244"/>
+      <c r="N41" s="245"/>
       <c r="O41" s="72"/>
       <c r="P41" s="72"/>
       <c r="Q41" s="74"/>
@@ -11483,10 +11446,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="241"/>
-      <c r="L42" s="242"/>
-      <c r="M42" s="242"/>
-      <c r="N42" s="243"/>
+      <c r="K42" s="243"/>
+      <c r="L42" s="244"/>
+      <c r="M42" s="244"/>
+      <c r="N42" s="245"/>
       <c r="O42" s="72"/>
       <c r="P42" s="72"/>
       <c r="Q42" s="74"/>
@@ -11508,10 +11471,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="241"/>
-      <c r="L43" s="242"/>
-      <c r="M43" s="242"/>
-      <c r="N43" s="243"/>
+      <c r="K43" s="243"/>
+      <c r="L43" s="244"/>
+      <c r="M43" s="244"/>
+      <c r="N43" s="245"/>
       <c r="O43" s="72"/>
       <c r="P43" s="72"/>
       <c r="Q43" s="74"/>
@@ -11533,10 +11496,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="241"/>
-      <c r="L44" s="242"/>
-      <c r="M44" s="242"/>
-      <c r="N44" s="243"/>
+      <c r="K44" s="243"/>
+      <c r="L44" s="244"/>
+      <c r="M44" s="244"/>
+      <c r="N44" s="245"/>
       <c r="O44" s="72"/>
       <c r="P44" s="72"/>
       <c r="Q44" s="74"/>
@@ -11558,10 +11521,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="241"/>
-      <c r="L45" s="242"/>
-      <c r="M45" s="242"/>
-      <c r="N45" s="243"/>
+      <c r="K45" s="243"/>
+      <c r="L45" s="244"/>
+      <c r="M45" s="244"/>
+      <c r="N45" s="245"/>
       <c r="O45" s="72"/>
       <c r="P45" s="72"/>
       <c r="Q45" s="74"/>
@@ -11583,10 +11546,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="241"/>
-      <c r="L46" s="242"/>
-      <c r="M46" s="242"/>
-      <c r="N46" s="243"/>
+      <c r="K46" s="243"/>
+      <c r="L46" s="244"/>
+      <c r="M46" s="244"/>
+      <c r="N46" s="245"/>
       <c r="O46" s="72"/>
       <c r="P46" s="72"/>
       <c r="Q46" s="74"/>
@@ -11608,10 +11571,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="241"/>
-      <c r="L47" s="242"/>
-      <c r="M47" s="242"/>
-      <c r="N47" s="243"/>
+      <c r="K47" s="243"/>
+      <c r="L47" s="244"/>
+      <c r="M47" s="244"/>
+      <c r="N47" s="245"/>
       <c r="O47" s="72"/>
       <c r="P47" s="72"/>
       <c r="Q47" s="74"/>
@@ -11633,10 +11596,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="241"/>
-      <c r="L48" s="242"/>
-      <c r="M48" s="242"/>
-      <c r="N48" s="243"/>
+      <c r="K48" s="243"/>
+      <c r="L48" s="244"/>
+      <c r="M48" s="244"/>
+      <c r="N48" s="245"/>
       <c r="O48" s="72"/>
       <c r="P48" s="72"/>
       <c r="Q48" s="74"/>
@@ -11658,10 +11621,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="241"/>
-      <c r="L49" s="242"/>
-      <c r="M49" s="242"/>
-      <c r="N49" s="243"/>
+      <c r="K49" s="243"/>
+      <c r="L49" s="244"/>
+      <c r="M49" s="244"/>
+      <c r="N49" s="245"/>
       <c r="O49" s="72"/>
       <c r="P49" s="72"/>
       <c r="Q49" s="74"/>
@@ -11683,10 +11646,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="241"/>
-      <c r="L50" s="242"/>
-      <c r="M50" s="242"/>
-      <c r="N50" s="243"/>
+      <c r="K50" s="243"/>
+      <c r="L50" s="244"/>
+      <c r="M50" s="244"/>
+      <c r="N50" s="245"/>
       <c r="O50" s="72"/>
       <c r="P50" s="72"/>
       <c r="Q50" s="74"/>
@@ -11708,10 +11671,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="241"/>
-      <c r="L51" s="242"/>
-      <c r="M51" s="242"/>
-      <c r="N51" s="243"/>
+      <c r="K51" s="243"/>
+      <c r="L51" s="244"/>
+      <c r="M51" s="244"/>
+      <c r="N51" s="245"/>
       <c r="O51" s="72"/>
       <c r="P51" s="72"/>
       <c r="Q51" s="74"/>
@@ -11733,10 +11696,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="241"/>
-      <c r="L52" s="242"/>
-      <c r="M52" s="242"/>
-      <c r="N52" s="243"/>
+      <c r="K52" s="243"/>
+      <c r="L52" s="244"/>
+      <c r="M52" s="244"/>
+      <c r="N52" s="245"/>
       <c r="O52" s="72"/>
       <c r="P52" s="72"/>
       <c r="Q52" s="74"/>
@@ -11758,10 +11721,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="241"/>
-      <c r="L53" s="242"/>
-      <c r="M53" s="242"/>
-      <c r="N53" s="243"/>
+      <c r="K53" s="243"/>
+      <c r="L53" s="244"/>
+      <c r="M53" s="244"/>
+      <c r="N53" s="245"/>
       <c r="O53" s="72"/>
       <c r="P53" s="72"/>
       <c r="Q53" s="74"/>
@@ -11783,10 +11746,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="241"/>
-      <c r="L54" s="242"/>
-      <c r="M54" s="242"/>
-      <c r="N54" s="243"/>
+      <c r="K54" s="243"/>
+      <c r="L54" s="244"/>
+      <c r="M54" s="244"/>
+      <c r="N54" s="245"/>
       <c r="O54" s="72"/>
       <c r="P54" s="72"/>
       <c r="Q54" s="74"/>
@@ -11808,10 +11771,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="241"/>
-      <c r="L55" s="242"/>
-      <c r="M55" s="242"/>
-      <c r="N55" s="243"/>
+      <c r="K55" s="243"/>
+      <c r="L55" s="244"/>
+      <c r="M55" s="244"/>
+      <c r="N55" s="245"/>
       <c r="O55" s="72"/>
       <c r="P55" s="72"/>
       <c r="Q55" s="74"/>
@@ -11833,10 +11796,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="241"/>
-      <c r="L56" s="242"/>
-      <c r="M56" s="242"/>
-      <c r="N56" s="243"/>
+      <c r="K56" s="243"/>
+      <c r="L56" s="244"/>
+      <c r="M56" s="244"/>
+      <c r="N56" s="245"/>
       <c r="O56" s="72"/>
       <c r="P56" s="72"/>
       <c r="Q56" s="74"/>
@@ -11858,10 +11821,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="241"/>
-      <c r="L57" s="242"/>
-      <c r="M57" s="242"/>
-      <c r="N57" s="243"/>
+      <c r="K57" s="243"/>
+      <c r="L57" s="244"/>
+      <c r="M57" s="244"/>
+      <c r="N57" s="245"/>
       <c r="O57" s="72"/>
       <c r="P57" s="72"/>
       <c r="Q57" s="74"/>
@@ -11883,10 +11846,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="241"/>
-      <c r="L58" s="242"/>
-      <c r="M58" s="242"/>
-      <c r="N58" s="243"/>
+      <c r="K58" s="243"/>
+      <c r="L58" s="244"/>
+      <c r="M58" s="244"/>
+      <c r="N58" s="245"/>
       <c r="O58" s="72"/>
       <c r="P58" s="72"/>
       <c r="Q58" s="74"/>
@@ -11908,10 +11871,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="241"/>
-      <c r="L59" s="242"/>
-      <c r="M59" s="242"/>
-      <c r="N59" s="243"/>
+      <c r="K59" s="243"/>
+      <c r="L59" s="244"/>
+      <c r="M59" s="244"/>
+      <c r="N59" s="245"/>
       <c r="O59" s="72"/>
       <c r="P59" s="72"/>
       <c r="Q59" s="74"/>
@@ -11933,10 +11896,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="241"/>
-      <c r="L60" s="242"/>
-      <c r="M60" s="242"/>
-      <c r="N60" s="243"/>
+      <c r="K60" s="243"/>
+      <c r="L60" s="244"/>
+      <c r="M60" s="244"/>
+      <c r="N60" s="245"/>
       <c r="O60" s="72"/>
       <c r="P60" s="72"/>
       <c r="Q60" s="74"/>
@@ -11958,10 +11921,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="241"/>
-      <c r="L61" s="242"/>
-      <c r="M61" s="242"/>
-      <c r="N61" s="243"/>
+      <c r="K61" s="243"/>
+      <c r="L61" s="244"/>
+      <c r="M61" s="244"/>
+      <c r="N61" s="245"/>
       <c r="O61" s="72"/>
       <c r="P61" s="72"/>
       <c r="Q61" s="74"/>
@@ -11983,10 +11946,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="241"/>
-      <c r="L62" s="242"/>
-      <c r="M62" s="242"/>
-      <c r="N62" s="243"/>
+      <c r="K62" s="243"/>
+      <c r="L62" s="244"/>
+      <c r="M62" s="244"/>
+      <c r="N62" s="245"/>
       <c r="O62" s="80"/>
       <c r="P62" s="80"/>
       <c r="Q62" s="74"/>
@@ -12008,10 +11971,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="241"/>
-      <c r="L63" s="242"/>
-      <c r="M63" s="242"/>
-      <c r="N63" s="243"/>
+      <c r="K63" s="243"/>
+      <c r="L63" s="244"/>
+      <c r="M63" s="244"/>
+      <c r="N63" s="245"/>
       <c r="O63" s="80"/>
       <c r="P63" s="80"/>
       <c r="Q63" s="74"/>
@@ -12033,10 +11996,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="241"/>
-      <c r="L64" s="242"/>
-      <c r="M64" s="242"/>
-      <c r="N64" s="243"/>
+      <c r="K64" s="243"/>
+      <c r="L64" s="244"/>
+      <c r="M64" s="244"/>
+      <c r="N64" s="245"/>
       <c r="O64" s="80"/>
       <c r="P64" s="80"/>
       <c r="Q64" s="74"/>
@@ -12056,10 +12019,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="241"/>
-      <c r="L65" s="242"/>
-      <c r="M65" s="242"/>
-      <c r="N65" s="243"/>
+      <c r="K65" s="243"/>
+      <c r="L65" s="244"/>
+      <c r="M65" s="244"/>
+      <c r="N65" s="245"/>
       <c r="O65" s="80"/>
       <c r="P65" s="80"/>
       <c r="Q65" s="74"/>
@@ -12079,10 +12042,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="241"/>
-      <c r="L66" s="242"/>
-      <c r="M66" s="242"/>
-      <c r="N66" s="243"/>
+      <c r="K66" s="243"/>
+      <c r="L66" s="244"/>
+      <c r="M66" s="244"/>
+      <c r="N66" s="245"/>
       <c r="O66" s="80"/>
       <c r="P66" s="80"/>
       <c r="Q66" s="74"/>
@@ -12102,10 +12065,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="241"/>
-      <c r="L67" s="242"/>
-      <c r="M67" s="242"/>
-      <c r="N67" s="243"/>
+      <c r="K67" s="243"/>
+      <c r="L67" s="244"/>
+      <c r="M67" s="244"/>
+      <c r="N67" s="245"/>
       <c r="O67" s="80"/>
       <c r="P67" s="80"/>
       <c r="Q67" s="74"/>
@@ -12125,10 +12088,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="241"/>
-      <c r="L68" s="242"/>
-      <c r="M68" s="242"/>
-      <c r="N68" s="243"/>
+      <c r="K68" s="243"/>
+      <c r="L68" s="244"/>
+      <c r="M68" s="244"/>
+      <c r="N68" s="245"/>
       <c r="O68" s="80"/>
       <c r="P68" s="80"/>
       <c r="Q68" s="74"/>
@@ -12148,10 +12111,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="241"/>
-      <c r="L69" s="242"/>
-      <c r="M69" s="242"/>
-      <c r="N69" s="243"/>
+      <c r="K69" s="243"/>
+      <c r="L69" s="244"/>
+      <c r="M69" s="244"/>
+      <c r="N69" s="245"/>
       <c r="O69" s="80"/>
       <c r="P69" s="80"/>
       <c r="Q69" s="74"/>
@@ -12171,10 +12134,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="241"/>
-      <c r="L70" s="242"/>
-      <c r="M70" s="242"/>
-      <c r="N70" s="243"/>
+      <c r="K70" s="243"/>
+      <c r="L70" s="244"/>
+      <c r="M70" s="244"/>
+      <c r="N70" s="245"/>
       <c r="O70" s="80"/>
       <c r="P70" s="80"/>
       <c r="Q70" s="74"/>
@@ -12194,10 +12157,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="241"/>
-      <c r="L71" s="242"/>
-      <c r="M71" s="242"/>
-      <c r="N71" s="243"/>
+      <c r="K71" s="243"/>
+      <c r="L71" s="244"/>
+      <c r="M71" s="244"/>
+      <c r="N71" s="245"/>
       <c r="O71" s="80"/>
       <c r="P71" s="80"/>
       <c r="Q71" s="74"/>
@@ -12217,10 +12180,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="241"/>
-      <c r="L72" s="242"/>
-      <c r="M72" s="242"/>
-      <c r="N72" s="243"/>
+      <c r="K72" s="243"/>
+      <c r="L72" s="244"/>
+      <c r="M72" s="244"/>
+      <c r="N72" s="245"/>
       <c r="O72" s="80"/>
       <c r="P72" s="80"/>
       <c r="Q72" s="74"/>
@@ -12240,10 +12203,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="241"/>
-      <c r="L73" s="242"/>
-      <c r="M73" s="242"/>
-      <c r="N73" s="243"/>
+      <c r="K73" s="243"/>
+      <c r="L73" s="244"/>
+      <c r="M73" s="244"/>
+      <c r="N73" s="245"/>
       <c r="O73" s="80"/>
       <c r="P73" s="80"/>
       <c r="Q73" s="74"/>
@@ -12263,10 +12226,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="241"/>
-      <c r="L74" s="242"/>
-      <c r="M74" s="242"/>
-      <c r="N74" s="243"/>
+      <c r="K74" s="243"/>
+      <c r="L74" s="244"/>
+      <c r="M74" s="244"/>
+      <c r="N74" s="245"/>
       <c r="O74" s="80"/>
       <c r="P74" s="80"/>
       <c r="Q74" s="74"/>
@@ -12286,10 +12249,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="241"/>
-      <c r="L75" s="242"/>
-      <c r="M75" s="242"/>
-      <c r="N75" s="243"/>
+      <c r="K75" s="243"/>
+      <c r="L75" s="244"/>
+      <c r="M75" s="244"/>
+      <c r="N75" s="245"/>
       <c r="O75" s="80"/>
       <c r="P75" s="80"/>
       <c r="Q75" s="74"/>
@@ -12309,10 +12272,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="241"/>
-      <c r="L76" s="242"/>
-      <c r="M76" s="242"/>
-      <c r="N76" s="243"/>
+      <c r="K76" s="243"/>
+      <c r="L76" s="244"/>
+      <c r="M76" s="244"/>
+      <c r="N76" s="245"/>
       <c r="O76" s="80"/>
       <c r="P76" s="80"/>
       <c r="Q76" s="74"/>
@@ -12332,10 +12295,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="241"/>
-      <c r="L77" s="242"/>
-      <c r="M77" s="242"/>
-      <c r="N77" s="243"/>
+      <c r="K77" s="243"/>
+      <c r="L77" s="244"/>
+      <c r="M77" s="244"/>
+      <c r="N77" s="245"/>
       <c r="O77" s="80"/>
       <c r="P77" s="80"/>
       <c r="Q77" s="74"/>
@@ -12355,10 +12318,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="241"/>
-      <c r="L78" s="242"/>
-      <c r="M78" s="242"/>
-      <c r="N78" s="243"/>
+      <c r="K78" s="243"/>
+      <c r="L78" s="244"/>
+      <c r="M78" s="244"/>
+      <c r="N78" s="245"/>
       <c r="O78" s="80"/>
       <c r="P78" s="80"/>
       <c r="Q78" s="74"/>
@@ -12378,10 +12341,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="241"/>
-      <c r="L79" s="242"/>
-      <c r="M79" s="242"/>
-      <c r="N79" s="243"/>
+      <c r="K79" s="243"/>
+      <c r="L79" s="244"/>
+      <c r="M79" s="244"/>
+      <c r="N79" s="245"/>
       <c r="O79" s="80"/>
       <c r="P79" s="80"/>
       <c r="Q79" s="74"/>
@@ -12401,10 +12364,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="241"/>
-      <c r="L80" s="242"/>
-      <c r="M80" s="242"/>
-      <c r="N80" s="243"/>
+      <c r="K80" s="243"/>
+      <c r="L80" s="244"/>
+      <c r="M80" s="244"/>
+      <c r="N80" s="245"/>
       <c r="O80" s="80"/>
       <c r="P80" s="80"/>
       <c r="Q80" s="74"/>
@@ -12424,10 +12387,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="241"/>
-      <c r="L81" s="242"/>
-      <c r="M81" s="242"/>
-      <c r="N81" s="243"/>
+      <c r="K81" s="243"/>
+      <c r="L81" s="244"/>
+      <c r="M81" s="244"/>
+      <c r="N81" s="245"/>
       <c r="O81" s="80"/>
       <c r="P81" s="80"/>
       <c r="Q81" s="74"/>
@@ -12447,10 +12410,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="241"/>
-      <c r="L82" s="242"/>
-      <c r="M82" s="242"/>
-      <c r="N82" s="243"/>
+      <c r="K82" s="243"/>
+      <c r="L82" s="244"/>
+      <c r="M82" s="244"/>
+      <c r="N82" s="245"/>
       <c r="O82" s="80"/>
       <c r="P82" s="80"/>
       <c r="Q82" s="74"/>
@@ -12470,10 +12433,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="241"/>
-      <c r="L83" s="242"/>
-      <c r="M83" s="242"/>
-      <c r="N83" s="243"/>
+      <c r="K83" s="243"/>
+      <c r="L83" s="244"/>
+      <c r="M83" s="244"/>
+      <c r="N83" s="245"/>
       <c r="O83" s="80"/>
       <c r="P83" s="80"/>
       <c r="Q83" s="74"/>
@@ -12493,10 +12456,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="241"/>
-      <c r="L84" s="242"/>
-      <c r="M84" s="242"/>
-      <c r="N84" s="243"/>
+      <c r="K84" s="243"/>
+      <c r="L84" s="244"/>
+      <c r="M84" s="244"/>
+      <c r="N84" s="245"/>
       <c r="O84" s="80"/>
       <c r="P84" s="80"/>
       <c r="Q84" s="74"/>
@@ -12516,10 +12479,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="241"/>
-      <c r="L85" s="242"/>
-      <c r="M85" s="242"/>
-      <c r="N85" s="243"/>
+      <c r="K85" s="243"/>
+      <c r="L85" s="244"/>
+      <c r="M85" s="244"/>
+      <c r="N85" s="245"/>
       <c r="O85" s="80"/>
       <c r="P85" s="80"/>
       <c r="Q85" s="74"/>
@@ -12539,10 +12502,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="241"/>
-      <c r="L86" s="242"/>
-      <c r="M86" s="242"/>
-      <c r="N86" s="243"/>
+      <c r="K86" s="243"/>
+      <c r="L86" s="244"/>
+      <c r="M86" s="244"/>
+      <c r="N86" s="245"/>
       <c r="O86" s="80"/>
       <c r="P86" s="80"/>
       <c r="Q86" s="74"/>
@@ -12562,10 +12525,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="241"/>
-      <c r="L87" s="242"/>
-      <c r="M87" s="242"/>
-      <c r="N87" s="243"/>
+      <c r="K87" s="243"/>
+      <c r="L87" s="244"/>
+      <c r="M87" s="244"/>
+      <c r="N87" s="245"/>
       <c r="O87" s="80"/>
       <c r="P87" s="80"/>
       <c r="Q87" s="74"/>
@@ -12585,10 +12548,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="241"/>
-      <c r="L88" s="242"/>
-      <c r="M88" s="242"/>
-      <c r="N88" s="243"/>
+      <c r="K88" s="243"/>
+      <c r="L88" s="244"/>
+      <c r="M88" s="244"/>
+      <c r="N88" s="245"/>
       <c r="O88" s="80"/>
       <c r="P88" s="80"/>
       <c r="Q88" s="74"/>
@@ -12608,10 +12571,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="241"/>
-      <c r="L89" s="242"/>
-      <c r="M89" s="242"/>
-      <c r="N89" s="243"/>
+      <c r="K89" s="243"/>
+      <c r="L89" s="244"/>
+      <c r="M89" s="244"/>
+      <c r="N89" s="245"/>
       <c r="O89" s="80"/>
       <c r="P89" s="80"/>
       <c r="Q89" s="74"/>
@@ -12631,10 +12594,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="241"/>
-      <c r="L90" s="242"/>
-      <c r="M90" s="242"/>
-      <c r="N90" s="243"/>
+      <c r="K90" s="243"/>
+      <c r="L90" s="244"/>
+      <c r="M90" s="244"/>
+      <c r="N90" s="245"/>
       <c r="O90" s="80"/>
       <c r="P90" s="80"/>
       <c r="Q90" s="74"/>
@@ -12654,10 +12617,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="241"/>
-      <c r="L91" s="242"/>
-      <c r="M91" s="242"/>
-      <c r="N91" s="243"/>
+      <c r="K91" s="243"/>
+      <c r="L91" s="244"/>
+      <c r="M91" s="244"/>
+      <c r="N91" s="245"/>
       <c r="O91" s="80"/>
       <c r="P91" s="80"/>
       <c r="Q91" s="74"/>
@@ -12677,10 +12640,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="241"/>
-      <c r="L92" s="242"/>
-      <c r="M92" s="242"/>
-      <c r="N92" s="243"/>
+      <c r="K92" s="243"/>
+      <c r="L92" s="244"/>
+      <c r="M92" s="244"/>
+      <c r="N92" s="245"/>
       <c r="O92" s="80"/>
       <c r="P92" s="80"/>
       <c r="Q92" s="74"/>
@@ -12700,10 +12663,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="241"/>
-      <c r="L93" s="242"/>
-      <c r="M93" s="242"/>
-      <c r="N93" s="243"/>
+      <c r="K93" s="243"/>
+      <c r="L93" s="244"/>
+      <c r="M93" s="244"/>
+      <c r="N93" s="245"/>
       <c r="O93" s="80"/>
       <c r="P93" s="80"/>
       <c r="Q93" s="74"/>
@@ -12723,10 +12686,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="241"/>
-      <c r="L94" s="242"/>
-      <c r="M94" s="242"/>
-      <c r="N94" s="243"/>
+      <c r="K94" s="243"/>
+      <c r="L94" s="244"/>
+      <c r="M94" s="244"/>
+      <c r="N94" s="245"/>
       <c r="O94" s="80"/>
       <c r="P94" s="80"/>
       <c r="Q94" s="74"/>
@@ -12739,28 +12702,62 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="K6:N6"/>
@@ -12777,62 +12774,28 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q9 Q11:Q94"/>
@@ -12878,10 +12841,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="204"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12909,8 +12872,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13058,13 +13021,13 @@
     </row>
     <row r="13" spans="1:10" s="151" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="151" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13" s="151" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="160" t="s">
         <v>222</v>
-      </c>
-      <c r="D13" s="160" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
@@ -13302,60 +13265,60 @@
       <c r="J31" s="140"/>
     </row>
     <row r="32" spans="1:10" s="125" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="164" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166" t="s">
-        <v>222</v>
-      </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="167"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="165" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="166"/>
     </row>
     <row r="33" spans="1:10" s="125" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="165"/>
-      <c r="B33" s="168" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="167"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="167" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="166"/>
     </row>
     <row r="34" spans="1:10" s="125" customFormat="1" ht="3.75" customHeight="1">
-      <c r="A34" s="165"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="167"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:10" s="125" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="165"/>
-      <c r="B35" s="168" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="167"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="167" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="166"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="71" t="s">
@@ -14122,10 +14085,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="204"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14153,8 +14116,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Lap phieu thu/AF0061 Lap phieu thu.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Lap phieu thu/AF0061 Lap phieu thu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="824" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="824" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1403,7 +1403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="231">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2239,40 +2239,19 @@
     <t>@SQL0004</t>
   </si>
   <si>
-    <t>@DivisionID @ObjectID</t>
-  </si>
-  <si>
-    <t>@@DivisionID @@ObjectID</t>
-  </si>
-  <si>
     <t>Form</t>
   </si>
   <si>
     <t>Load</t>
   </si>
   <si>
-    <t>Nhận tham số từ màn hình AF0324 gọi màn hình AF0061 đồng thời load dữ liệu lên màn hình AF0061 từ đơn hàng khi thực thi @SQL0004</t>
-  </si>
-  <si>
     <t>ObjectID</t>
   </si>
   <si>
     <t>CustomizeIndex = 51</t>
   </si>
   <si>
-    <t>- Nhận tham số @DivisionID và @ObjectID gọi màn hình AF0061 và thực thi @SQL0004 để load form AF061</t>
-  </si>
-  <si>
-    <t>@DivisionID, @ObjectID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ver 3.0 </t>
-  </si>
-  <si>
-    <t>- Chọn Btn Hóa đơn bán hàng truyền tham số @DivisionID và @ObjectID để gọi màn hình AF0274</t>
-  </si>
-  <si>
-    <t>- Customize cho Hoàng Trần (CustomizeIndex = 51): kế thừa hóa đơn bán hàng và load đơn hàng theo barcode từ tham số truyền vào</t>
   </si>
   <si>
     <t>OT2002, AT9000, AT2001</t>
@@ -2304,7 +2283,26 @@
 LEFT JOIN AT9000 AT00 ON AT00.DivisionID = OT02.DivisionID AND AT00.TransactionID = OT02.TransactionID
 INNER JOIN OT2001 OT01 ON OT01.DivisionID = OT02.DivisionID AND OT01.SOrderID = OT02.SOrderID
 LEFT JOIN At2007 ON (AT2007.InheritVoucherID = OT02.SOrderID  AND OT02.TransactionID = AT2007.InheritTransactionID) 
-      OR (AT2007.OTransactionID = OT02.TransactionID AND AT2007.OrderID = OT02.SOrderID)</t>
+      OR (AT2007.OTransactionID = OT02.TransactionID AND AT2007.OrderID = OT02.SOrderID)
+WHERE OT01.DivisionID = @DivisionID AND AT2007.VoucherID = @VoucherID</t>
+  </si>
+  <si>
+    <t>Nhận tham số từ màn hình AF0324 gọi màn hình AF0061 đồng thời thực thi @SQL0004 load dữ liệu lên màn hình AF0061 từ đơn hàng</t>
+  </si>
+  <si>
+    <t>@DivisionID @VoucherID</t>
+  </si>
+  <si>
+    <t>@@DivisionID @@VoucherID</t>
+  </si>
+  <si>
+    <t>@DivisionID, @VoucherID</t>
+  </si>
+  <si>
+    <t>- Customize cho Hoàng Trần (CustomizeIndex = 51): load đơn hàng theo barcode từ tham số truyền vào màn hình và cho phép kế thừa hóa đơn bán hàng</t>
+  </si>
+  <si>
+    <t>- Nhận tham số @DivisionID và @VoucherID gọi màn hình AF0061 và đồng thời thực thi @SQL0004 để load form AF0061</t>
   </si>
 </sst>
 </file>
@@ -2842,7 +2840,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3263,123 +3261,123 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3440,6 +3438,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3461,21 +3474,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3485,6 +3483,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3494,18 +3504,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3535,6 +3533,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4467,65 +4468,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="183"/>
-      <c r="B1" s="183"/>
-      <c r="C1" s="185" t="s">
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="179" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="184" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184" t="s">
+      <c r="H1" s="178"/>
+      <c r="I1" s="178" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="184"/>
+      <c r="J1" s="178"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="183"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="184" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="178" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="180" t="s">
+      <c r="A3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="181"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="181"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="113"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="182"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
+      <c r="A13" s="176"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="114"/>
       <c r="L13" s="114"/>
       <c r="M13" s="114"/>
@@ -4536,56 +4537,56 @@
       <c r="R13" s="114"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="176"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="172"/>
+      <c r="R14" s="172"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="176"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="176"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="172"/>
+      <c r="R15" s="172"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="179" t="s">
+      <c r="A16" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
       <c r="K16" s="115"/>
       <c r="L16" s="115"/>
       <c r="M16" s="115"/>
@@ -4596,384 +4597,384 @@
       <c r="R16" s="115"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="176"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="176"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="176"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="172"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="176"/>
-      <c r="O18" s="176"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="176"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="178"/>
-      <c r="P19" s="178"/>
-      <c r="Q19" s="178"/>
-      <c r="R19" s="178"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="189"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="189"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="176"/>
-      <c r="N20" s="176"/>
-      <c r="O20" s="176"/>
-      <c r="P20" s="176"/>
-      <c r="Q20" s="176"/>
-      <c r="R20" s="176"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="172"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="176"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="176"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="176"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="172"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="188"/>
+      <c r="O22" s="188"/>
+      <c r="P22" s="188"/>
+      <c r="Q22" s="188"/>
+      <c r="R22" s="188"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="177"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="177"/>
-      <c r="M23" s="177"/>
-      <c r="N23" s="177"/>
-      <c r="O23" s="177"/>
-      <c r="P23" s="177"/>
-      <c r="Q23" s="177"/>
-      <c r="R23" s="177"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="188"/>
+      <c r="O23" s="188"/>
+      <c r="P23" s="188"/>
+      <c r="Q23" s="188"/>
+      <c r="R23" s="188"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="174"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="190"/>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="190"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="173"/>
-      <c r="AI28" s="173"/>
-      <c r="AJ28" s="173"/>
-      <c r="AK28" s="173"/>
-      <c r="AL28" s="173"/>
-      <c r="AM28" s="173"/>
-      <c r="AN28" s="173"/>
-      <c r="AO28" s="173"/>
-      <c r="AP28" s="173"/>
-      <c r="AQ28" s="173"/>
-      <c r="AR28" s="173"/>
-      <c r="AS28" s="173"/>
-      <c r="AT28" s="173"/>
-      <c r="AU28" s="173"/>
-      <c r="AV28" s="173"/>
-      <c r="AW28" s="173"/>
-      <c r="AX28" s="173"/>
-      <c r="AY28" s="173"/>
-      <c r="AZ28" s="173"/>
-      <c r="BA28" s="173"/>
-      <c r="BB28" s="173"/>
-      <c r="BC28" s="173"/>
-      <c r="BD28" s="173"/>
-      <c r="BE28" s="173"/>
-      <c r="BF28" s="173"/>
-      <c r="BG28" s="173"/>
-      <c r="BH28" s="173"/>
-      <c r="BI28" s="173"/>
-      <c r="BJ28" s="173"/>
-      <c r="BK28" s="173"/>
-      <c r="BL28" s="173"/>
-      <c r="BM28" s="173"/>
-      <c r="BN28" s="173"/>
-      <c r="BO28" s="173"/>
-      <c r="BP28" s="173"/>
-      <c r="BQ28" s="173"/>
-      <c r="BR28" s="173"/>
-      <c r="BS28" s="173"/>
-      <c r="BT28" s="173"/>
-      <c r="BU28" s="173"/>
-      <c r="BV28" s="173"/>
-      <c r="BW28" s="173"/>
-      <c r="BX28" s="173"/>
-      <c r="BY28" s="173"/>
-      <c r="BZ28" s="173"/>
-      <c r="CA28" s="173"/>
-      <c r="CB28" s="173"/>
-      <c r="CC28" s="173"/>
-      <c r="CD28" s="173"/>
-      <c r="CE28" s="173"/>
-      <c r="CF28" s="173"/>
-      <c r="CG28" s="173"/>
-      <c r="CH28" s="173"/>
-      <c r="CI28" s="173"/>
-      <c r="CJ28" s="173"/>
-      <c r="CK28" s="173"/>
-      <c r="CL28" s="173"/>
-      <c r="CM28" s="173"/>
-      <c r="CN28" s="173"/>
-      <c r="CO28" s="173"/>
-      <c r="CP28" s="173"/>
-      <c r="CQ28" s="173"/>
-      <c r="CR28" s="173"/>
-      <c r="CS28" s="173"/>
-      <c r="CT28" s="173"/>
-      <c r="CU28" s="173"/>
-      <c r="CV28" s="173"/>
-      <c r="CW28" s="173"/>
-      <c r="CX28" s="173"/>
-      <c r="CY28" s="173"/>
-      <c r="CZ28" s="173"/>
-      <c r="DA28" s="173"/>
-      <c r="DB28" s="173"/>
-      <c r="DC28" s="173"/>
-      <c r="DD28" s="173"/>
-      <c r="DE28" s="173"/>
-      <c r="DF28" s="173"/>
-      <c r="DG28" s="173"/>
-      <c r="DH28" s="173"/>
-      <c r="DI28" s="173"/>
-      <c r="DJ28" s="173"/>
-      <c r="DK28" s="173"/>
-      <c r="DL28" s="173"/>
-      <c r="DM28" s="173"/>
-      <c r="DN28" s="173"/>
-      <c r="DO28" s="173"/>
-      <c r="DP28" s="173"/>
-      <c r="DQ28" s="173"/>
-      <c r="DR28" s="173"/>
-      <c r="DS28" s="173"/>
-      <c r="DT28" s="173"/>
-      <c r="DU28" s="173"/>
-      <c r="DV28" s="173"/>
-      <c r="DW28" s="173"/>
-      <c r="DX28" s="173"/>
-      <c r="DY28" s="173"/>
-      <c r="DZ28" s="173"/>
-      <c r="EA28" s="173"/>
-      <c r="EB28" s="173"/>
-      <c r="EC28" s="173"/>
-      <c r="ED28" s="173"/>
-      <c r="EE28" s="173"/>
-      <c r="EF28" s="173"/>
-      <c r="EG28" s="173"/>
-      <c r="EH28" s="173"/>
-      <c r="EI28" s="173"/>
-      <c r="EJ28" s="173"/>
-      <c r="EK28" s="173"/>
-      <c r="EL28" s="173"/>
-      <c r="EM28" s="173"/>
-      <c r="EN28" s="173"/>
-      <c r="EO28" s="173"/>
-      <c r="EP28" s="173"/>
-      <c r="EQ28" s="173"/>
-      <c r="ER28" s="173"/>
-      <c r="ES28" s="173"/>
-      <c r="ET28" s="173"/>
-      <c r="EU28" s="173"/>
-      <c r="EV28" s="173"/>
-      <c r="EW28" s="173"/>
-      <c r="EX28" s="173"/>
-      <c r="EY28" s="173"/>
-      <c r="EZ28" s="173"/>
-      <c r="FA28" s="173"/>
-      <c r="FB28" s="173"/>
-      <c r="FC28" s="173"/>
-      <c r="FD28" s="173"/>
-      <c r="FE28" s="173"/>
-      <c r="FF28" s="173"/>
-      <c r="FG28" s="173"/>
-      <c r="FH28" s="173"/>
-      <c r="FI28" s="173"/>
-      <c r="FJ28" s="173"/>
-      <c r="FK28" s="173"/>
-      <c r="FL28" s="173"/>
-      <c r="FM28" s="173"/>
-      <c r="FN28" s="173"/>
-      <c r="FO28" s="173"/>
-      <c r="FP28" s="173"/>
-      <c r="FQ28" s="173"/>
-      <c r="FR28" s="173"/>
-      <c r="FS28" s="173"/>
-      <c r="FT28" s="173"/>
-      <c r="FU28" s="173"/>
-      <c r="FV28" s="173"/>
-      <c r="FW28" s="173"/>
-      <c r="FX28" s="173"/>
-      <c r="FY28" s="173"/>
-      <c r="FZ28" s="173"/>
-      <c r="GA28" s="173"/>
-      <c r="GB28" s="173"/>
-      <c r="GC28" s="173"/>
-      <c r="GD28" s="173"/>
-      <c r="GE28" s="173"/>
-      <c r="GF28" s="173"/>
-      <c r="GG28" s="173"/>
-      <c r="GH28" s="173"/>
-      <c r="GI28" s="173"/>
-      <c r="GJ28" s="173"/>
-      <c r="GK28" s="173"/>
-      <c r="GL28" s="173"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="192"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="192"/>
+      <c r="M28" s="192"/>
+      <c r="N28" s="192"/>
+      <c r="O28" s="192"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="192"/>
+      <c r="R28" s="192"/>
+      <c r="S28" s="191"/>
+      <c r="T28" s="191"/>
+      <c r="U28" s="191"/>
+      <c r="V28" s="191"/>
+      <c r="W28" s="191"/>
+      <c r="X28" s="191"/>
+      <c r="Y28" s="191"/>
+      <c r="Z28" s="191"/>
+      <c r="AA28" s="191"/>
+      <c r="AB28" s="191"/>
+      <c r="AC28" s="191"/>
+      <c r="AD28" s="191"/>
+      <c r="AE28" s="191"/>
+      <c r="AF28" s="191"/>
+      <c r="AG28" s="191"/>
+      <c r="AH28" s="191"/>
+      <c r="AI28" s="191"/>
+      <c r="AJ28" s="191"/>
+      <c r="AK28" s="191"/>
+      <c r="AL28" s="191"/>
+      <c r="AM28" s="191"/>
+      <c r="AN28" s="191"/>
+      <c r="AO28" s="191"/>
+      <c r="AP28" s="191"/>
+      <c r="AQ28" s="191"/>
+      <c r="AR28" s="191"/>
+      <c r="AS28" s="191"/>
+      <c r="AT28" s="191"/>
+      <c r="AU28" s="191"/>
+      <c r="AV28" s="191"/>
+      <c r="AW28" s="191"/>
+      <c r="AX28" s="191"/>
+      <c r="AY28" s="191"/>
+      <c r="AZ28" s="191"/>
+      <c r="BA28" s="191"/>
+      <c r="BB28" s="191"/>
+      <c r="BC28" s="191"/>
+      <c r="BD28" s="191"/>
+      <c r="BE28" s="191"/>
+      <c r="BF28" s="191"/>
+      <c r="BG28" s="191"/>
+      <c r="BH28" s="191"/>
+      <c r="BI28" s="191"/>
+      <c r="BJ28" s="191"/>
+      <c r="BK28" s="191"/>
+      <c r="BL28" s="191"/>
+      <c r="BM28" s="191"/>
+      <c r="BN28" s="191"/>
+      <c r="BO28" s="191"/>
+      <c r="BP28" s="191"/>
+      <c r="BQ28" s="191"/>
+      <c r="BR28" s="191"/>
+      <c r="BS28" s="191"/>
+      <c r="BT28" s="191"/>
+      <c r="BU28" s="191"/>
+      <c r="BV28" s="191"/>
+      <c r="BW28" s="191"/>
+      <c r="BX28" s="191"/>
+      <c r="BY28" s="191"/>
+      <c r="BZ28" s="191"/>
+      <c r="CA28" s="191"/>
+      <c r="CB28" s="191"/>
+      <c r="CC28" s="191"/>
+      <c r="CD28" s="191"/>
+      <c r="CE28" s="191"/>
+      <c r="CF28" s="191"/>
+      <c r="CG28" s="191"/>
+      <c r="CH28" s="191"/>
+      <c r="CI28" s="191"/>
+      <c r="CJ28" s="191"/>
+      <c r="CK28" s="191"/>
+      <c r="CL28" s="191"/>
+      <c r="CM28" s="191"/>
+      <c r="CN28" s="191"/>
+      <c r="CO28" s="191"/>
+      <c r="CP28" s="191"/>
+      <c r="CQ28" s="191"/>
+      <c r="CR28" s="191"/>
+      <c r="CS28" s="191"/>
+      <c r="CT28" s="191"/>
+      <c r="CU28" s="191"/>
+      <c r="CV28" s="191"/>
+      <c r="CW28" s="191"/>
+      <c r="CX28" s="191"/>
+      <c r="CY28" s="191"/>
+      <c r="CZ28" s="191"/>
+      <c r="DA28" s="191"/>
+      <c r="DB28" s="191"/>
+      <c r="DC28" s="191"/>
+      <c r="DD28" s="191"/>
+      <c r="DE28" s="191"/>
+      <c r="DF28" s="191"/>
+      <c r="DG28" s="191"/>
+      <c r="DH28" s="191"/>
+      <c r="DI28" s="191"/>
+      <c r="DJ28" s="191"/>
+      <c r="DK28" s="191"/>
+      <c r="DL28" s="191"/>
+      <c r="DM28" s="191"/>
+      <c r="DN28" s="191"/>
+      <c r="DO28" s="191"/>
+      <c r="DP28" s="191"/>
+      <c r="DQ28" s="191"/>
+      <c r="DR28" s="191"/>
+      <c r="DS28" s="191"/>
+      <c r="DT28" s="191"/>
+      <c r="DU28" s="191"/>
+      <c r="DV28" s="191"/>
+      <c r="DW28" s="191"/>
+      <c r="DX28" s="191"/>
+      <c r="DY28" s="191"/>
+      <c r="DZ28" s="191"/>
+      <c r="EA28" s="191"/>
+      <c r="EB28" s="191"/>
+      <c r="EC28" s="191"/>
+      <c r="ED28" s="191"/>
+      <c r="EE28" s="191"/>
+      <c r="EF28" s="191"/>
+      <c r="EG28" s="191"/>
+      <c r="EH28" s="191"/>
+      <c r="EI28" s="191"/>
+      <c r="EJ28" s="191"/>
+      <c r="EK28" s="191"/>
+      <c r="EL28" s="191"/>
+      <c r="EM28" s="191"/>
+      <c r="EN28" s="191"/>
+      <c r="EO28" s="191"/>
+      <c r="EP28" s="191"/>
+      <c r="EQ28" s="191"/>
+      <c r="ER28" s="191"/>
+      <c r="ES28" s="191"/>
+      <c r="ET28" s="191"/>
+      <c r="EU28" s="191"/>
+      <c r="EV28" s="191"/>
+      <c r="EW28" s="191"/>
+      <c r="EX28" s="191"/>
+      <c r="EY28" s="191"/>
+      <c r="EZ28" s="191"/>
+      <c r="FA28" s="191"/>
+      <c r="FB28" s="191"/>
+      <c r="FC28" s="191"/>
+      <c r="FD28" s="191"/>
+      <c r="FE28" s="191"/>
+      <c r="FF28" s="191"/>
+      <c r="FG28" s="191"/>
+      <c r="FH28" s="191"/>
+      <c r="FI28" s="191"/>
+      <c r="FJ28" s="191"/>
+      <c r="FK28" s="191"/>
+      <c r="FL28" s="191"/>
+      <c r="FM28" s="191"/>
+      <c r="FN28" s="191"/>
+      <c r="FO28" s="191"/>
+      <c r="FP28" s="191"/>
+      <c r="FQ28" s="191"/>
+      <c r="FR28" s="191"/>
+      <c r="FS28" s="191"/>
+      <c r="FT28" s="191"/>
+      <c r="FU28" s="191"/>
+      <c r="FV28" s="191"/>
+      <c r="FW28" s="191"/>
+      <c r="FX28" s="191"/>
+      <c r="FY28" s="191"/>
+      <c r="FZ28" s="191"/>
+      <c r="GA28" s="191"/>
+      <c r="GB28" s="191"/>
+      <c r="GC28" s="191"/>
+      <c r="GD28" s="191"/>
+      <c r="GE28" s="191"/>
+      <c r="GF28" s="191"/>
+      <c r="GG28" s="191"/>
+      <c r="GH28" s="191"/>
+      <c r="GI28" s="191"/>
+      <c r="GJ28" s="191"/>
+      <c r="GK28" s="191"/>
+      <c r="GL28" s="191"/>
       <c r="GM28" s="116"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="174"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="174"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="174"/>
-      <c r="O29" s="174"/>
-      <c r="P29" s="174"/>
-      <c r="Q29" s="174"/>
-      <c r="R29" s="174"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="190"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="190"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="190"/>
+      <c r="Q29" s="190"/>
+      <c r="R29" s="190"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="172"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
+      <c r="A30" s="193"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="193"/>
       <c r="K30" s="117"/>
       <c r="L30" s="117"/>
       <c r="M30" s="117"/>
@@ -4984,16 +4985,16 @@
       <c r="R30" s="117"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="172"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
+      <c r="A31" s="193"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="193"/>
       <c r="K31" s="117"/>
       <c r="L31" s="117"/>
       <c r="M31" s="117"/>
@@ -5005,6 +5006,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5018,28 +5041,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5578,7 +5579,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="E7" sqref="E7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5594,10 +5595,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="203"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5624,8 +5625,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5664,14 +5665,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5" s="40">
@@ -5686,14 +5687,14 @@
       <c r="D5" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="206" t="s">
+      <c r="E5" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
     </row>
     <row r="6" spans="1:10" s="127" customFormat="1" ht="25.5" customHeight="1">
       <c r="A6" s="128">
@@ -5708,14 +5709,14 @@
       <c r="D6" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="208" t="s">
+      <c r="E6" s="207" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="210"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="209"/>
     </row>
     <row r="7" spans="1:10" s="151" customFormat="1" ht="24.75" customHeight="1">
       <c r="A7" s="88">
@@ -5730,14 +5731,14 @@
       <c r="D7" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="198" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
+      <c r="E7" s="194" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="89">
@@ -5748,12 +5749,12 @@
       </c>
       <c r="C8" s="75"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="203"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="90">
@@ -5764,12 +5765,12 @@
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="202"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="91">
@@ -5780,12 +5781,12 @@
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="202"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="92">
@@ -5796,12 +5797,12 @@
       </c>
       <c r="C11" s="75"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="202"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="93">
@@ -5812,12 +5813,12 @@
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
+      <c r="E12" s="200"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="202"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="94">
@@ -5828,12 +5829,12 @@
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="202"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="95">
@@ -5844,12 +5845,12 @@
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="195"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="202"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5860,12 +5861,12 @@
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="87">
@@ -5876,12 +5877,12 @@
       </c>
       <c r="C16" s="75"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="210"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="88">
@@ -5892,12 +5893,12 @@
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="210"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="89">
@@ -5908,12 +5909,12 @@
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="90">
@@ -5924,12 +5925,12 @@
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="194"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="91">
@@ -5940,12 +5941,12 @@
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="92">
@@ -5956,12 +5957,12 @@
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="194"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="210"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="93">
@@ -5972,12 +5973,12 @@
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="210"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="94">
@@ -5988,12 +5989,12 @@
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="194"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="95">
@@ -6004,12 +6005,12 @@
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="194"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="210"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6020,12 +6021,12 @@
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="194"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="210"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6036,12 +6037,12 @@
       </c>
       <c r="C26" s="75"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="210"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="87">
@@ -6052,12 +6053,12 @@
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="210"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="88">
@@ -6068,12 +6069,12 @@
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="194"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="210"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="89">
@@ -6084,12 +6085,12 @@
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="210"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="90">
@@ -6100,12 +6101,12 @@
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="210"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="91">
@@ -6116,12 +6117,12 @@
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="210"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="92">
@@ -6132,12 +6133,12 @@
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="210"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="93">
@@ -6148,12 +6149,12 @@
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="210"/>
+      <c r="J33" s="210"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="94">
@@ -6164,12 +6165,12 @@
       </c>
       <c r="C34" s="75"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="210"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="210"/>
+      <c r="J34" s="210"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="95">
@@ -6180,12 +6181,12 @@
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6196,12 +6197,12 @@
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="210"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="87">
@@ -6212,12 +6213,12 @@
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="E37" s="210"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="210"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="88">
@@ -6228,12 +6229,12 @@
       </c>
       <c r="C38" s="75"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
+      <c r="E38" s="210"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="210"/>
+      <c r="J38" s="210"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="89">
@@ -6244,12 +6245,12 @@
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="194"/>
+      <c r="E39" s="210"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="210"/>
+      <c r="J39" s="210"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="90">
@@ -6260,12 +6261,12 @@
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
+      <c r="E40" s="210"/>
+      <c r="F40" s="210"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="210"/>
+      <c r="I40" s="210"/>
+      <c r="J40" s="210"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="91">
@@ -6276,12 +6277,12 @@
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="194"/>
+      <c r="E41" s="210"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="210"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="92">
@@ -6292,23 +6293,32 @@
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="194"/>
+      <c r="E42" s="210"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="210"/>
+      <c r="I42" s="210"/>
+      <c r="J42" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6324,23 +6334,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6382,10 +6383,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="203"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6413,8 +6414,8 @@
       <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6986,12 +6987,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7021,10 +7022,10 @@
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9059,7 +9060,7 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9083,7 +9084,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9117,7 +9118,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="234"/>
+      <c r="A2" s="239"/>
       <c r="B2" s="120"/>
       <c r="C2" s="146"/>
       <c r="D2" s="31" t="s">
@@ -9167,15 +9168,15 @@
       <c r="F4" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="204" t="s">
+      <c r="G4" s="203" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204" t="s">
+      <c r="H4" s="203"/>
+      <c r="I4" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="152">
@@ -9188,21 +9189,21 @@
         <v>51</v>
       </c>
       <c r="D5" s="152"/>
-      <c r="E5" s="153" t="s">
-        <v>230</v>
+      <c r="E5" s="263" t="s">
+        <v>223</v>
       </c>
       <c r="F5" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="G5" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="232"/>
-      <c r="I5" s="235" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="236"/>
-      <c r="K5" s="237"/>
+      <c r="G5" s="236" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="237"/>
+      <c r="I5" s="240" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="241"/>
+      <c r="K5" s="242"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9213,11 +9214,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="242"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="233"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
@@ -9228,11 +9229,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="242"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="233"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9243,11 +9244,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="239"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="242"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9258,11 +9259,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="242"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9273,11 +9274,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="238"/>
-      <c r="H10" s="239"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="242"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="232"/>
+      <c r="K10" s="233"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9288,11 +9289,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="242"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="233"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9303,11 +9304,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="241"/>
-      <c r="K12" s="242"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="233"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9318,11 +9319,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="242"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="232"/>
+      <c r="K13" s="233"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9333,11 +9334,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="238"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="242"/>
+      <c r="G14" s="234"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="233"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9348,11 +9349,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="242"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="233"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A16" s="33">
@@ -9363,11 +9364,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="240"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="242"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="233"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
@@ -9378,11 +9379,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="242"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="233"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9393,11 +9394,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="240"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="242"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="233"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9408,11 +9409,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="239"/>
-      <c r="I19" s="240"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="242"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="233"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A20" s="33">
@@ -9423,11 +9424,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="239"/>
-      <c r="I20" s="240"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="242"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="233"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
@@ -9438,11 +9439,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="242"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="233"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9453,11 +9454,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="240"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="242"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="233"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9468,11 +9469,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="242"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="233"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9483,11 +9484,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="242"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="233"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9498,11 +9499,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="240"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="242"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="233"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9513,11 +9514,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="242"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="233"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9528,11 +9529,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="242"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="233"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9543,11 +9544,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="242"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="233"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A29" s="33">
@@ -9558,11 +9559,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="241"/>
-      <c r="K29" s="242"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="233"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9573,11 +9574,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="242"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="233"/>
     </row>
     <row r="31" spans="1:19" ht="11.25">
       <c r="A31" s="33">
@@ -9588,11 +9589,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="240"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="242"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="233"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
@@ -9610,11 +9611,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="241"/>
-      <c r="K32" s="242"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="233"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9632,11 +9633,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="240"/>
-      <c r="J33" s="241"/>
-      <c r="K33" s="242"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="232"/>
+      <c r="K33" s="233"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9654,11 +9655,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="240"/>
-      <c r="J34" s="241"/>
-      <c r="K34" s="242"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="232"/>
+      <c r="K34" s="233"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9676,11 +9677,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="240"/>
-      <c r="J35" s="241"/>
-      <c r="K35" s="242"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="232"/>
+      <c r="K35" s="233"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9698,11 +9699,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="240"/>
-      <c r="J36" s="241"/>
-      <c r="K36" s="242"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="231"/>
+      <c r="J36" s="232"/>
+      <c r="K36" s="233"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9720,11 +9721,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="195"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="240"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="242"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="232"/>
+      <c r="K37" s="233"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9742,11 +9743,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="240"/>
-      <c r="J38" s="241"/>
-      <c r="K38" s="242"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="231"/>
+      <c r="J38" s="232"/>
+      <c r="K38" s="233"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9764,11 +9765,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="240"/>
-      <c r="J39" s="241"/>
-      <c r="K39" s="242"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="231"/>
+      <c r="J39" s="232"/>
+      <c r="K39" s="233"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9786,11 +9787,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="240"/>
-      <c r="J40" s="241"/>
-      <c r="K40" s="242"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="231"/>
+      <c r="J40" s="232"/>
+      <c r="K40" s="233"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9808,11 +9809,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="195"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="241"/>
-      <c r="K41" s="242"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="231"/>
+      <c r="J41" s="232"/>
+      <c r="K41" s="233"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9830,11 +9831,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="195"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="240"/>
-      <c r="J42" s="241"/>
-      <c r="K42" s="242"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="231"/>
+      <c r="J42" s="232"/>
+      <c r="K42" s="233"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9852,11 +9853,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="240"/>
-      <c r="J43" s="241"/>
-      <c r="K43" s="242"/>
+      <c r="G43" s="200"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="231"/>
+      <c r="J43" s="232"/>
+      <c r="K43" s="233"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9874,11 +9875,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="197"/>
-      <c r="I44" s="240"/>
-      <c r="J44" s="241"/>
-      <c r="K44" s="242"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="232"/>
+      <c r="K44" s="233"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9896,11 +9897,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="195"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="240"/>
-      <c r="J45" s="241"/>
-      <c r="K45" s="242"/>
+      <c r="G45" s="200"/>
+      <c r="H45" s="202"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="232"/>
+      <c r="K45" s="233"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9918,11 +9919,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="197"/>
-      <c r="I46" s="240"/>
-      <c r="J46" s="241"/>
-      <c r="K46" s="242"/>
+      <c r="G46" s="200"/>
+      <c r="H46" s="202"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="232"/>
+      <c r="K46" s="233"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9940,11 +9941,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="195"/>
-      <c r="H47" s="197"/>
-      <c r="I47" s="240"/>
-      <c r="J47" s="241"/>
-      <c r="K47" s="242"/>
+      <c r="G47" s="200"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="231"/>
+      <c r="J47" s="232"/>
+      <c r="K47" s="233"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9962,11 +9963,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="195"/>
-      <c r="H48" s="197"/>
-      <c r="I48" s="240"/>
-      <c r="J48" s="241"/>
-      <c r="K48" s="242"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="202"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="232"/>
+      <c r="K48" s="233"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9984,11 +9985,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="195"/>
-      <c r="H49" s="197"/>
-      <c r="I49" s="240"/>
-      <c r="J49" s="241"/>
-      <c r="K49" s="242"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="202"/>
+      <c r="I49" s="231"/>
+      <c r="J49" s="232"/>
+      <c r="K49" s="233"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10006,11 +10007,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="195"/>
-      <c r="H50" s="197"/>
-      <c r="I50" s="240"/>
-      <c r="J50" s="241"/>
-      <c r="K50" s="242"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="202"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="232"/>
+      <c r="K50" s="233"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10028,11 +10029,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="195"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="240"/>
-      <c r="J51" s="241"/>
-      <c r="K51" s="242"/>
+      <c r="G51" s="200"/>
+      <c r="H51" s="202"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="232"/>
+      <c r="K51" s="233"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10050,11 +10051,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="195"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="240"/>
-      <c r="J52" s="241"/>
-      <c r="K52" s="242"/>
+      <c r="G52" s="200"/>
+      <c r="H52" s="202"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="232"/>
+      <c r="K52" s="233"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10072,11 +10073,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="195"/>
-      <c r="H53" s="197"/>
-      <c r="I53" s="240"/>
-      <c r="J53" s="241"/>
-      <c r="K53" s="242"/>
+      <c r="G53" s="200"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="231"/>
+      <c r="J53" s="232"/>
+      <c r="K53" s="233"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10094,11 +10095,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="195"/>
-      <c r="H54" s="197"/>
-      <c r="I54" s="240"/>
-      <c r="J54" s="241"/>
-      <c r="K54" s="242"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="232"/>
+      <c r="K54" s="233"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10116,11 +10117,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="195"/>
-      <c r="H55" s="197"/>
-      <c r="I55" s="240"/>
-      <c r="J55" s="241"/>
-      <c r="K55" s="242"/>
+      <c r="G55" s="200"/>
+      <c r="H55" s="202"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="232"/>
+      <c r="K55" s="233"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10132,6 +10133,97 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="105">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="G53:H53"/>
@@ -10146,97 +10238,6 @@
     <mergeCell ref="I53:K53"/>
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F55">
@@ -10254,8 +10255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="H7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10283,24 +10284,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="249" t="str">
+      <c r="J1" s="246" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="249"/>
+      <c r="K1" s="246"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10325,22 +10326,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="249" t="str">
+      <c r="J2" s="246" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="249"/>
+      <c r="K2" s="246"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10395,12 +10396,12 @@
       <c r="J4" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="250" t="s">
+      <c r="K4" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="251"/>
-      <c r="M4" s="251"/>
-      <c r="N4" s="252"/>
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="249"/>
       <c r="O4" s="147" t="s">
         <v>56</v>
       </c>
@@ -10440,12 +10441,12 @@
       <c r="J5" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="201" t="s">
+      <c r="K5" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="203"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="199"/>
       <c r="O5" s="121" t="s">
         <v>181</v>
       </c>
@@ -10487,12 +10488,12 @@
       <c r="J6" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="246" t="s">
+      <c r="K6" s="250" t="s">
         <v>194</v>
       </c>
-      <c r="L6" s="247"/>
-      <c r="M6" s="247"/>
-      <c r="N6" s="248"/>
+      <c r="L6" s="251"/>
+      <c r="M6" s="251"/>
+      <c r="N6" s="252"/>
       <c r="O6" s="135" t="s">
         <v>193</v>
       </c>
@@ -10533,12 +10534,12 @@
       <c r="J7" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="246" t="s">
+      <c r="K7" s="250" t="s">
         <v>188</v>
       </c>
-      <c r="L7" s="247"/>
-      <c r="M7" s="247"/>
-      <c r="N7" s="248"/>
+      <c r="L7" s="251"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="252"/>
       <c r="O7" s="135" t="s">
         <v>189</v>
       </c>
@@ -10564,13 +10565,13 @@
         <v>51</v>
       </c>
       <c r="D8" s="161" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E8" s="161" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F8" s="156" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G8" s="155" t="s">
         <v>212</v>
@@ -10585,25 +10586,25 @@
         <v>213</v>
       </c>
       <c r="K8" s="253" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L8" s="254"/>
       <c r="M8" s="254"/>
       <c r="N8" s="255"/>
       <c r="O8" s="158" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" s="158" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q8" s="156" t="s">
         <v>214</v>
       </c>
-      <c r="P8" s="158" t="s">
+      <c r="R8" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="Q8" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="R8" s="155" t="s">
-        <v>217</v>
-      </c>
       <c r="S8" s="159" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="T8" s="162"/>
       <c r="U8" s="162"/>
@@ -10646,10 +10647,10 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
-      <c r="K10" s="240"/>
-      <c r="L10" s="241"/>
-      <c r="M10" s="241"/>
-      <c r="N10" s="242"/>
+      <c r="K10" s="231"/>
+      <c r="L10" s="232"/>
+      <c r="M10" s="232"/>
+      <c r="N10" s="233"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
@@ -12702,36 +12703,54 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
     <mergeCell ref="K58:N58"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K34:N34"/>
@@ -12748,54 +12767,36 @@
     <mergeCell ref="K47:N47"/>
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q9 Q11:Q94"/>
@@ -12824,8 +12825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12841,10 +12842,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="203"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12872,8 +12873,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13021,13 +13022,13 @@
     </row>
     <row r="13" spans="1:10" s="151" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="151" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B13" s="151" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
@@ -13270,7 +13271,7 @@
       </c>
       <c r="B32" s="165"/>
       <c r="C32" s="165" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D32" s="165"/>
       <c r="E32" s="165"/>
@@ -13283,7 +13284,7 @@
     <row r="33" spans="1:10" s="125" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="164"/>
       <c r="B33" s="167" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C33" s="165"/>
       <c r="D33" s="165"/>
@@ -13308,9 +13309,7 @@
     </row>
     <row r="35" spans="1:10" s="125" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="164"/>
-      <c r="B35" s="167" t="s">
-        <v>224</v>
-      </c>
+      <c r="B35" s="167"/>
       <c r="C35" s="165"/>
       <c r="D35" s="165"/>
       <c r="E35" s="165"/>
@@ -14085,10 +14084,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="203"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14116,8 +14115,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="204"/>
-      <c r="B2" s="204"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Lap phieu thu/AF0061 Lap phieu thu.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Lap phieu thu/AF0061 Lap phieu thu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="824" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="824" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2269,11 +2269,29 @@
     <t>@DivisionID và @VoucherID</t>
   </si>
   <si>
-    <t xml:space="preserve"> SELECT 
- AT00.VoucherID,AT00.VoucherNo, AT00.InvoiceNo, AT00.InvoiceDate, AT00.InvoiceCode, ISNULL(AT00.ObjectID, OT01.ObjectID), AT00.Serial,
+    <t>Nhận tham số từ màn hình AF0324 gọi màn hình AF0061 đồng thời thực thi @SQL0004 load dữ liệu lên màn hình AF0061 từ đơn hàng</t>
+  </si>
+  <si>
+    <t>@DivisionID @VoucherID</t>
+  </si>
+  <si>
+    <t>@@DivisionID @@VoucherID</t>
+  </si>
+  <si>
+    <t>@DivisionID, @VoucherID</t>
+  </si>
+  <si>
+    <t>- Customize cho Hoàng Trần (CustomizeIndex = 51): load đơn hàng theo barcode từ tham số truyền vào màn hình và cho phép kế thừa hóa đơn bán hàng</t>
+  </si>
+  <si>
+    <t>- Nhận tham số @DivisionID và @VoucherID gọi màn hình AF0061 và đồng thời thực thi @SQL0004 để load form AF0061</t>
+  </si>
+  <si>
+    <t>SELECT 
+ AT00.VoucherID,AT00.VoucherNo, AT00.InvoiceNo, AT00.InvoiceDate, AT00.InvoiceCode, ObjectID = ISNULL(AT00.ObjectID, OT01.ObjectID), AT00.Serial,
  AT00.DebitAccountID, AT00.CreditAccountID, AT00.VoucherTypeID, AT00.VATTypeID, AT00.VATGroupID, OT01.Ana01ID, OT01.Ana02ID, OT01.Ana03ID, OT01.Ana04ID
  , OT01.Ana05ID,OT02.Ana06ID, OT02.Ana07ID, OT02.Ana08ID, OT02.Ana09ID, OT02.Ana10ID, AT00.RefNo01, AT00.RefNo02, AT00.CurrencyID, OT01.ExchangeRate
- , OT02.TransactionID,
+ , OT02.TransactionID, 
  ConvertedAmount = (SELECT Sum(ISNULL(ConvertedAmount,0)- ISNULL(DiscountConvertedAmount,0)- ISNULL(CommissionCAmount,0) + ISNULL(VATConvertedAmount, 0)) 
  FROM OT2002 Where OT2002.SOrderID = OT01.SOrderID),
  OriginalAmount = (SELECT Sum(ISNULL(OriginalAmount,0)- ISNULL(DiscountOriginalAmount,0) - ISNULL(CommissionOAmount, 0) + ISNULL(VAToriginalAmount, 0))  
@@ -2285,24 +2303,6 @@
 LEFT JOIN At2007 ON (AT2007.InheritVoucherID = OT02.SOrderID  AND OT02.TransactionID = AT2007.InheritTransactionID) 
       OR (AT2007.OTransactionID = OT02.TransactionID AND AT2007.OrderID = OT02.SOrderID)
 WHERE OT01.DivisionID = @DivisionID AND AT2007.VoucherID = @VoucherID</t>
-  </si>
-  <si>
-    <t>Nhận tham số từ màn hình AF0324 gọi màn hình AF0061 đồng thời thực thi @SQL0004 load dữ liệu lên màn hình AF0061 từ đơn hàng</t>
-  </si>
-  <si>
-    <t>@DivisionID @VoucherID</t>
-  </si>
-  <si>
-    <t>@@DivisionID @@VoucherID</t>
-  </si>
-  <si>
-    <t>@DivisionID, @VoucherID</t>
-  </si>
-  <si>
-    <t>- Customize cho Hoàng Trần (CustomizeIndex = 51): load đơn hàng theo barcode từ tham số truyền vào màn hình và cho phép kế thừa hóa đơn bán hàng</t>
-  </si>
-  <si>
-    <t>- Nhận tham số @DivisionID và @VoucherID gọi màn hình AF0061 và đồng thời thực thi @SQL0004 để load form AF0061</t>
   </si>
 </sst>
 </file>
@@ -3261,9 +3261,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3309,23 +3330,17 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3345,15 +3360,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3375,9 +3381,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3438,6 +3441,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3447,33 +3477,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3483,6 +3486,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3495,15 +3507,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3533,9 +3536,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4468,65 +4468,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="179" t="s">
+      <c r="A1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="186" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="178" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="185" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178" t="s">
+      <c r="H1" s="185"/>
+      <c r="I1" s="185" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="178"/>
+      <c r="J1" s="185"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="178" t="s">
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="185" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="174" t="s">
+      <c r="A3" s="184"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="181" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="182"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="113"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="176"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="114"/>
       <c r="L13" s="114"/>
       <c r="M13" s="114"/>
@@ -4537,56 +4537,56 @@
       <c r="R13" s="114"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="172"/>
-      <c r="Q14" s="172"/>
-      <c r="R14" s="172"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="172"/>
-      <c r="N15" s="172"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="172"/>
-      <c r="R15" s="172"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="115"/>
       <c r="L16" s="115"/>
       <c r="M16" s="115"/>
@@ -4597,384 +4597,384 @@
       <c r="R16" s="115"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="172"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="189"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="189"/>
-      <c r="L19" s="189"/>
-      <c r="M19" s="189"/>
-      <c r="N19" s="189"/>
-      <c r="O19" s="189"/>
-      <c r="P19" s="189"/>
-      <c r="Q19" s="189"/>
-      <c r="R19" s="189"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="179"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="179"/>
+      <c r="R19" s="179"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="172"/>
-      <c r="R20" s="172"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="172"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="188"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
-      <c r="O22" s="188"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="188"/>
-      <c r="R22" s="188"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="178"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="188"/>
-      <c r="M23" s="188"/>
-      <c r="N23" s="188"/>
-      <c r="O23" s="188"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="188"/>
-      <c r="R23" s="188"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="178"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="190"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="190"/>
-      <c r="O26" s="190"/>
-      <c r="P26" s="190"/>
-      <c r="Q26" s="190"/>
-      <c r="R26" s="190"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="192"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="192"/>
-      <c r="O28" s="192"/>
-      <c r="P28" s="192"/>
-      <c r="Q28" s="192"/>
-      <c r="R28" s="192"/>
-      <c r="S28" s="191"/>
-      <c r="T28" s="191"/>
-      <c r="U28" s="191"/>
-      <c r="V28" s="191"/>
-      <c r="W28" s="191"/>
-      <c r="X28" s="191"/>
-      <c r="Y28" s="191"/>
-      <c r="Z28" s="191"/>
-      <c r="AA28" s="191"/>
-      <c r="AB28" s="191"/>
-      <c r="AC28" s="191"/>
-      <c r="AD28" s="191"/>
-      <c r="AE28" s="191"/>
-      <c r="AF28" s="191"/>
-      <c r="AG28" s="191"/>
-      <c r="AH28" s="191"/>
-      <c r="AI28" s="191"/>
-      <c r="AJ28" s="191"/>
-      <c r="AK28" s="191"/>
-      <c r="AL28" s="191"/>
-      <c r="AM28" s="191"/>
-      <c r="AN28" s="191"/>
-      <c r="AO28" s="191"/>
-      <c r="AP28" s="191"/>
-      <c r="AQ28" s="191"/>
-      <c r="AR28" s="191"/>
-      <c r="AS28" s="191"/>
-      <c r="AT28" s="191"/>
-      <c r="AU28" s="191"/>
-      <c r="AV28" s="191"/>
-      <c r="AW28" s="191"/>
-      <c r="AX28" s="191"/>
-      <c r="AY28" s="191"/>
-      <c r="AZ28" s="191"/>
-      <c r="BA28" s="191"/>
-      <c r="BB28" s="191"/>
-      <c r="BC28" s="191"/>
-      <c r="BD28" s="191"/>
-      <c r="BE28" s="191"/>
-      <c r="BF28" s="191"/>
-      <c r="BG28" s="191"/>
-      <c r="BH28" s="191"/>
-      <c r="BI28" s="191"/>
-      <c r="BJ28" s="191"/>
-      <c r="BK28" s="191"/>
-      <c r="BL28" s="191"/>
-      <c r="BM28" s="191"/>
-      <c r="BN28" s="191"/>
-      <c r="BO28" s="191"/>
-      <c r="BP28" s="191"/>
-      <c r="BQ28" s="191"/>
-      <c r="BR28" s="191"/>
-      <c r="BS28" s="191"/>
-      <c r="BT28" s="191"/>
-      <c r="BU28" s="191"/>
-      <c r="BV28" s="191"/>
-      <c r="BW28" s="191"/>
-      <c r="BX28" s="191"/>
-      <c r="BY28" s="191"/>
-      <c r="BZ28" s="191"/>
-      <c r="CA28" s="191"/>
-      <c r="CB28" s="191"/>
-      <c r="CC28" s="191"/>
-      <c r="CD28" s="191"/>
-      <c r="CE28" s="191"/>
-      <c r="CF28" s="191"/>
-      <c r="CG28" s="191"/>
-      <c r="CH28" s="191"/>
-      <c r="CI28" s="191"/>
-      <c r="CJ28" s="191"/>
-      <c r="CK28" s="191"/>
-      <c r="CL28" s="191"/>
-      <c r="CM28" s="191"/>
-      <c r="CN28" s="191"/>
-      <c r="CO28" s="191"/>
-      <c r="CP28" s="191"/>
-      <c r="CQ28" s="191"/>
-      <c r="CR28" s="191"/>
-      <c r="CS28" s="191"/>
-      <c r="CT28" s="191"/>
-      <c r="CU28" s="191"/>
-      <c r="CV28" s="191"/>
-      <c r="CW28" s="191"/>
-      <c r="CX28" s="191"/>
-      <c r="CY28" s="191"/>
-      <c r="CZ28" s="191"/>
-      <c r="DA28" s="191"/>
-      <c r="DB28" s="191"/>
-      <c r="DC28" s="191"/>
-      <c r="DD28" s="191"/>
-      <c r="DE28" s="191"/>
-      <c r="DF28" s="191"/>
-      <c r="DG28" s="191"/>
-      <c r="DH28" s="191"/>
-      <c r="DI28" s="191"/>
-      <c r="DJ28" s="191"/>
-      <c r="DK28" s="191"/>
-      <c r="DL28" s="191"/>
-      <c r="DM28" s="191"/>
-      <c r="DN28" s="191"/>
-      <c r="DO28" s="191"/>
-      <c r="DP28" s="191"/>
-      <c r="DQ28" s="191"/>
-      <c r="DR28" s="191"/>
-      <c r="DS28" s="191"/>
-      <c r="DT28" s="191"/>
-      <c r="DU28" s="191"/>
-      <c r="DV28" s="191"/>
-      <c r="DW28" s="191"/>
-      <c r="DX28" s="191"/>
-      <c r="DY28" s="191"/>
-      <c r="DZ28" s="191"/>
-      <c r="EA28" s="191"/>
-      <c r="EB28" s="191"/>
-      <c r="EC28" s="191"/>
-      <c r="ED28" s="191"/>
-      <c r="EE28" s="191"/>
-      <c r="EF28" s="191"/>
-      <c r="EG28" s="191"/>
-      <c r="EH28" s="191"/>
-      <c r="EI28" s="191"/>
-      <c r="EJ28" s="191"/>
-      <c r="EK28" s="191"/>
-      <c r="EL28" s="191"/>
-      <c r="EM28" s="191"/>
-      <c r="EN28" s="191"/>
-      <c r="EO28" s="191"/>
-      <c r="EP28" s="191"/>
-      <c r="EQ28" s="191"/>
-      <c r="ER28" s="191"/>
-      <c r="ES28" s="191"/>
-      <c r="ET28" s="191"/>
-      <c r="EU28" s="191"/>
-      <c r="EV28" s="191"/>
-      <c r="EW28" s="191"/>
-      <c r="EX28" s="191"/>
-      <c r="EY28" s="191"/>
-      <c r="EZ28" s="191"/>
-      <c r="FA28" s="191"/>
-      <c r="FB28" s="191"/>
-      <c r="FC28" s="191"/>
-      <c r="FD28" s="191"/>
-      <c r="FE28" s="191"/>
-      <c r="FF28" s="191"/>
-      <c r="FG28" s="191"/>
-      <c r="FH28" s="191"/>
-      <c r="FI28" s="191"/>
-      <c r="FJ28" s="191"/>
-      <c r="FK28" s="191"/>
-      <c r="FL28" s="191"/>
-      <c r="FM28" s="191"/>
-      <c r="FN28" s="191"/>
-      <c r="FO28" s="191"/>
-      <c r="FP28" s="191"/>
-      <c r="FQ28" s="191"/>
-      <c r="FR28" s="191"/>
-      <c r="FS28" s="191"/>
-      <c r="FT28" s="191"/>
-      <c r="FU28" s="191"/>
-      <c r="FV28" s="191"/>
-      <c r="FW28" s="191"/>
-      <c r="FX28" s="191"/>
-      <c r="FY28" s="191"/>
-      <c r="FZ28" s="191"/>
-      <c r="GA28" s="191"/>
-      <c r="GB28" s="191"/>
-      <c r="GC28" s="191"/>
-      <c r="GD28" s="191"/>
-      <c r="GE28" s="191"/>
-      <c r="GF28" s="191"/>
-      <c r="GG28" s="191"/>
-      <c r="GH28" s="191"/>
-      <c r="GI28" s="191"/>
-      <c r="GJ28" s="191"/>
-      <c r="GK28" s="191"/>
-      <c r="GL28" s="191"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="174"/>
+      <c r="Y28" s="174"/>
+      <c r="Z28" s="174"/>
+      <c r="AA28" s="174"/>
+      <c r="AB28" s="174"/>
+      <c r="AC28" s="174"/>
+      <c r="AD28" s="174"/>
+      <c r="AE28" s="174"/>
+      <c r="AF28" s="174"/>
+      <c r="AG28" s="174"/>
+      <c r="AH28" s="174"/>
+      <c r="AI28" s="174"/>
+      <c r="AJ28" s="174"/>
+      <c r="AK28" s="174"/>
+      <c r="AL28" s="174"/>
+      <c r="AM28" s="174"/>
+      <c r="AN28" s="174"/>
+      <c r="AO28" s="174"/>
+      <c r="AP28" s="174"/>
+      <c r="AQ28" s="174"/>
+      <c r="AR28" s="174"/>
+      <c r="AS28" s="174"/>
+      <c r="AT28" s="174"/>
+      <c r="AU28" s="174"/>
+      <c r="AV28" s="174"/>
+      <c r="AW28" s="174"/>
+      <c r="AX28" s="174"/>
+      <c r="AY28" s="174"/>
+      <c r="AZ28" s="174"/>
+      <c r="BA28" s="174"/>
+      <c r="BB28" s="174"/>
+      <c r="BC28" s="174"/>
+      <c r="BD28" s="174"/>
+      <c r="BE28" s="174"/>
+      <c r="BF28" s="174"/>
+      <c r="BG28" s="174"/>
+      <c r="BH28" s="174"/>
+      <c r="BI28" s="174"/>
+      <c r="BJ28" s="174"/>
+      <c r="BK28" s="174"/>
+      <c r="BL28" s="174"/>
+      <c r="BM28" s="174"/>
+      <c r="BN28" s="174"/>
+      <c r="BO28" s="174"/>
+      <c r="BP28" s="174"/>
+      <c r="BQ28" s="174"/>
+      <c r="BR28" s="174"/>
+      <c r="BS28" s="174"/>
+      <c r="BT28" s="174"/>
+      <c r="BU28" s="174"/>
+      <c r="BV28" s="174"/>
+      <c r="BW28" s="174"/>
+      <c r="BX28" s="174"/>
+      <c r="BY28" s="174"/>
+      <c r="BZ28" s="174"/>
+      <c r="CA28" s="174"/>
+      <c r="CB28" s="174"/>
+      <c r="CC28" s="174"/>
+      <c r="CD28" s="174"/>
+      <c r="CE28" s="174"/>
+      <c r="CF28" s="174"/>
+      <c r="CG28" s="174"/>
+      <c r="CH28" s="174"/>
+      <c r="CI28" s="174"/>
+      <c r="CJ28" s="174"/>
+      <c r="CK28" s="174"/>
+      <c r="CL28" s="174"/>
+      <c r="CM28" s="174"/>
+      <c r="CN28" s="174"/>
+      <c r="CO28" s="174"/>
+      <c r="CP28" s="174"/>
+      <c r="CQ28" s="174"/>
+      <c r="CR28" s="174"/>
+      <c r="CS28" s="174"/>
+      <c r="CT28" s="174"/>
+      <c r="CU28" s="174"/>
+      <c r="CV28" s="174"/>
+      <c r="CW28" s="174"/>
+      <c r="CX28" s="174"/>
+      <c r="CY28" s="174"/>
+      <c r="CZ28" s="174"/>
+      <c r="DA28" s="174"/>
+      <c r="DB28" s="174"/>
+      <c r="DC28" s="174"/>
+      <c r="DD28" s="174"/>
+      <c r="DE28" s="174"/>
+      <c r="DF28" s="174"/>
+      <c r="DG28" s="174"/>
+      <c r="DH28" s="174"/>
+      <c r="DI28" s="174"/>
+      <c r="DJ28" s="174"/>
+      <c r="DK28" s="174"/>
+      <c r="DL28" s="174"/>
+      <c r="DM28" s="174"/>
+      <c r="DN28" s="174"/>
+      <c r="DO28" s="174"/>
+      <c r="DP28" s="174"/>
+      <c r="DQ28" s="174"/>
+      <c r="DR28" s="174"/>
+      <c r="DS28" s="174"/>
+      <c r="DT28" s="174"/>
+      <c r="DU28" s="174"/>
+      <c r="DV28" s="174"/>
+      <c r="DW28" s="174"/>
+      <c r="DX28" s="174"/>
+      <c r="DY28" s="174"/>
+      <c r="DZ28" s="174"/>
+      <c r="EA28" s="174"/>
+      <c r="EB28" s="174"/>
+      <c r="EC28" s="174"/>
+      <c r="ED28" s="174"/>
+      <c r="EE28" s="174"/>
+      <c r="EF28" s="174"/>
+      <c r="EG28" s="174"/>
+      <c r="EH28" s="174"/>
+      <c r="EI28" s="174"/>
+      <c r="EJ28" s="174"/>
+      <c r="EK28" s="174"/>
+      <c r="EL28" s="174"/>
+      <c r="EM28" s="174"/>
+      <c r="EN28" s="174"/>
+      <c r="EO28" s="174"/>
+      <c r="EP28" s="174"/>
+      <c r="EQ28" s="174"/>
+      <c r="ER28" s="174"/>
+      <c r="ES28" s="174"/>
+      <c r="ET28" s="174"/>
+      <c r="EU28" s="174"/>
+      <c r="EV28" s="174"/>
+      <c r="EW28" s="174"/>
+      <c r="EX28" s="174"/>
+      <c r="EY28" s="174"/>
+      <c r="EZ28" s="174"/>
+      <c r="FA28" s="174"/>
+      <c r="FB28" s="174"/>
+      <c r="FC28" s="174"/>
+      <c r="FD28" s="174"/>
+      <c r="FE28" s="174"/>
+      <c r="FF28" s="174"/>
+      <c r="FG28" s="174"/>
+      <c r="FH28" s="174"/>
+      <c r="FI28" s="174"/>
+      <c r="FJ28" s="174"/>
+      <c r="FK28" s="174"/>
+      <c r="FL28" s="174"/>
+      <c r="FM28" s="174"/>
+      <c r="FN28" s="174"/>
+      <c r="FO28" s="174"/>
+      <c r="FP28" s="174"/>
+      <c r="FQ28" s="174"/>
+      <c r="FR28" s="174"/>
+      <c r="FS28" s="174"/>
+      <c r="FT28" s="174"/>
+      <c r="FU28" s="174"/>
+      <c r="FV28" s="174"/>
+      <c r="FW28" s="174"/>
+      <c r="FX28" s="174"/>
+      <c r="FY28" s="174"/>
+      <c r="FZ28" s="174"/>
+      <c r="GA28" s="174"/>
+      <c r="GB28" s="174"/>
+      <c r="GC28" s="174"/>
+      <c r="GD28" s="174"/>
+      <c r="GE28" s="174"/>
+      <c r="GF28" s="174"/>
+      <c r="GG28" s="174"/>
+      <c r="GH28" s="174"/>
+      <c r="GI28" s="174"/>
+      <c r="GJ28" s="174"/>
+      <c r="GK28" s="174"/>
+      <c r="GL28" s="174"/>
       <c r="GM28" s="116"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="190"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="190"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="190"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="190"/>
-      <c r="Q29" s="190"/>
-      <c r="R29" s="190"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="193"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
+      <c r="A30" s="173"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
       <c r="K30" s="117"/>
       <c r="L30" s="117"/>
       <c r="M30" s="117"/>
@@ -4985,16 +4985,16 @@
       <c r="R30" s="117"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="193"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="173"/>
       <c r="K31" s="117"/>
       <c r="L31" s="117"/>
       <c r="M31" s="117"/>
@@ -5006,28 +5006,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5041,6 +5019,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5067,14 +5067,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="259" t="s">
+      <c r="B1" s="260" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5267,11 +5267,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="260" t="s">
+      <c r="E27" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="261"/>
-      <c r="G27" s="262"/>
+      <c r="F27" s="262"/>
+      <c r="G27" s="263"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5595,10 +5595,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
+      <c r="B1" s="205"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5625,8 +5625,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5665,14 +5665,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="204" t="s">
+      <c r="E4" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5" s="40">
@@ -5687,14 +5687,14 @@
       <c r="D5" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="205" t="s">
+      <c r="E5" s="207" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="208"/>
     </row>
     <row r="6" spans="1:10" s="127" customFormat="1" ht="25.5" customHeight="1">
       <c r="A6" s="128">
@@ -5709,14 +5709,14 @@
       <c r="D6" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="207" t="s">
+      <c r="E6" s="209" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="209"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="211"/>
     </row>
     <row r="7" spans="1:10" s="151" customFormat="1" ht="24.75" customHeight="1">
       <c r="A7" s="88">
@@ -5731,14 +5731,14 @@
       <c r="D7" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="194" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196"/>
+      <c r="E7" s="199" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="201"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="89">
@@ -5749,12 +5749,12 @@
       </c>
       <c r="C8" s="75"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="204"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="90">
@@ -5765,12 +5765,12 @@
       </c>
       <c r="C9" s="75"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="202"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="91">
@@ -5781,12 +5781,12 @@
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="202"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="92">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C11" s="75"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="202"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="198"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="93">
@@ -5813,12 +5813,12 @@
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="202"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="198"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="94">
@@ -5829,12 +5829,12 @@
       </c>
       <c r="C13" s="75"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="202"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="95">
@@ -5845,12 +5845,12 @@
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="202"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="198"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5861,12 +5861,12 @@
       </c>
       <c r="C15" s="75"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="210"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="87">
@@ -5877,12 +5877,12 @@
       </c>
       <c r="C16" s="75"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="210"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="210"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="88">
@@ -5893,12 +5893,12 @@
       </c>
       <c r="C17" s="75"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="89">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="210"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="195"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="90">
@@ -5925,12 +5925,12 @@
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="91">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="195"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="92">
@@ -5957,12 +5957,12 @@
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="210"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="195"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="93">
@@ -5973,12 +5973,12 @@
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="210"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="195"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="94">
@@ -5989,12 +5989,12 @@
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="95">
@@ -6005,12 +6005,12 @@
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="210"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="210"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="195"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6021,12 +6021,12 @@
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="210"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="210"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6037,12 +6037,12 @@
       </c>
       <c r="C26" s="75"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="210"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="87">
@@ -6053,12 +6053,12 @@
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="210"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="88">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="210"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="195"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="89">
@@ -6085,12 +6085,12 @@
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="210"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="195"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="90">
@@ -6101,12 +6101,12 @@
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="210"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="210"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="195"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="91">
@@ -6117,12 +6117,12 @@
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="210"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="92">
@@ -6133,12 +6133,12 @@
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="210"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="210"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="210"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="195"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="93">
@@ -6149,12 +6149,12 @@
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="210"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="210"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="210"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="94">
@@ -6165,12 +6165,12 @@
       </c>
       <c r="C34" s="75"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="210"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="210"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="95">
@@ -6181,12 +6181,12 @@
       </c>
       <c r="C35" s="75"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="210"/>
-      <c r="F36" s="210"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="210"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="87">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="210"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="88">
@@ -6229,12 +6229,12 @@
       </c>
       <c r="C38" s="75"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="210"/>
-      <c r="F38" s="210"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="210"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="210"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="89">
@@ -6245,12 +6245,12 @@
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="210"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="210"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="90">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="210"/>
-      <c r="F40" s="210"/>
-      <c r="G40" s="210"/>
-      <c r="H40" s="210"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="91">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="210"/>
-      <c r="F41" s="210"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="210"/>
-      <c r="I41" s="210"/>
-      <c r="J41" s="210"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="92">
@@ -6293,32 +6293,23 @@
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="210"/>
-      <c r="F42" s="210"/>
-      <c r="G42" s="210"/>
-      <c r="H42" s="210"/>
-      <c r="I42" s="210"/>
-      <c r="J42" s="210"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6334,14 +6325,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6383,10 +6383,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
+      <c r="B1" s="205"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6414,8 +6414,8 @@
       <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6443,20 +6443,20 @@
       <c r="J2" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="211" t="s">
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="212"/>
+      <c r="J4" s="213"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6467,10 +6467,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="220" t="s">
+      <c r="I5" s="221" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="221"/>
+      <c r="J5" s="222"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6481,8 +6481,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="224"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6493,8 +6493,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="223"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="224"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6505,8 +6505,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="224"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6517,8 +6517,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="222"/>
-      <c r="J9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="224"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6529,8 +6529,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="225"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="226"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6541,10 +6541,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="211" t="s">
+      <c r="I11" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="212"/>
+      <c r="J11" s="213"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6555,10 +6555,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="214" t="s">
+      <c r="I12" s="215" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="215"/>
+      <c r="J12" s="216"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6569,8 +6569,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="217"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="218"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6581,8 +6581,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="217"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="218"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6593,8 +6593,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="217"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="218"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6605,8 +6605,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="217"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="218"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6617,8 +6617,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="217"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="218"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6629,8 +6629,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="218"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6641,8 +6641,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="218"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6653,8 +6653,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="217"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="218"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6665,8 +6665,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="217"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="218"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6677,8 +6677,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="217"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="218"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6689,8 +6689,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="217"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="218"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6701,8 +6701,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="217"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="218"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6713,8 +6713,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="217"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="218"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6725,8 +6725,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="217"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="218"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6737,8 +6737,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="217"/>
+      <c r="I27" s="217"/>
+      <c r="J27" s="218"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6749,8 +6749,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="217"/>
+      <c r="I28" s="217"/>
+      <c r="J28" s="218"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6761,8 +6761,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="218"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6773,8 +6773,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="218"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6785,8 +6785,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="218"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6797,8 +6797,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="216"/>
-      <c r="J32" s="217"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="218"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6809,8 +6809,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="218"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6821,8 +6821,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="216"/>
-      <c r="J34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="218"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6833,8 +6833,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="217"/>
+      <c r="I35" s="217"/>
+      <c r="J35" s="218"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6845,8 +6845,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="216"/>
-      <c r="J36" s="217"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="218"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6857,8 +6857,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="216"/>
-      <c r="J37" s="217"/>
+      <c r="I37" s="217"/>
+      <c r="J37" s="218"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6869,8 +6869,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="216"/>
-      <c r="J38" s="217"/>
+      <c r="I38" s="217"/>
+      <c r="J38" s="218"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6881,8 +6881,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="216"/>
-      <c r="J39" s="217"/>
+      <c r="I39" s="217"/>
+      <c r="J39" s="218"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6893,8 +6893,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="216"/>
-      <c r="J40" s="217"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="218"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6905,8 +6905,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="216"/>
-      <c r="J41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="218"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6917,8 +6917,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="217"/>
+      <c r="I42" s="217"/>
+      <c r="J42" s="218"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6929,8 +6929,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="218"/>
-      <c r="J43" s="219"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6987,12 +6987,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7000,15 +7000,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="226" t="s">
+      <c r="G1" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="227"/>
-      <c r="I1" s="228" t="s">
+      <c r="H1" s="228"/>
+      <c r="I1" s="229" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="229"/>
-      <c r="K1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="231"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7022,10 +7022,10 @@
       <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7033,16 +7033,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="G2" s="226" t="s">
+      <c r="G2" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="227"/>
-      <c r="I2" s="228" t="str">
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>'Update History'!F2</f>
         <v>Lập phiếu thu</v>
       </c>
-      <c r="J2" s="229"/>
-      <c r="K2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="231"/>
       <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
@@ -9084,7 +9084,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="234" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119"/>
@@ -9118,7 +9118,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="239"/>
+      <c r="A2" s="235"/>
       <c r="B2" s="120"/>
       <c r="C2" s="146"/>
       <c r="D2" s="31" t="s">
@@ -9168,15 +9168,15 @@
       <c r="F4" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="203" t="s">
+      <c r="G4" s="205" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203" t="s">
+      <c r="H4" s="205"/>
+      <c r="I4" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="152">
@@ -9189,21 +9189,21 @@
         <v>51</v>
       </c>
       <c r="D5" s="152"/>
-      <c r="E5" s="263" t="s">
+      <c r="E5" s="172" t="s">
         <v>223</v>
       </c>
       <c r="F5" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="G5" s="236" t="s">
+      <c r="G5" s="232" t="s">
         <v>222</v>
       </c>
-      <c r="H5" s="237"/>
-      <c r="I5" s="240" t="s">
+      <c r="H5" s="233"/>
+      <c r="I5" s="236" t="s">
         <v>221</v>
       </c>
-      <c r="J5" s="241"/>
-      <c r="K5" s="242"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="238"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9214,11 +9214,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="232"/>
-      <c r="K6" s="233"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="243"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
@@ -9229,11 +9229,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="233"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="243"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9244,11 +9244,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9259,11 +9259,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="243"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9274,11 +9274,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="233"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="243"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9289,11 +9289,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="233"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="243"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9304,11 +9304,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="233"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="240"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="243"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9319,11 +9319,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="233"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="242"/>
+      <c r="K13" s="243"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9334,11 +9334,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
+      <c r="G14" s="239"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="243"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9349,11 +9349,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="233"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="243"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A16" s="33">
@@ -9364,11 +9364,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="233"/>
+      <c r="G16" s="239"/>
+      <c r="H16" s="240"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="242"/>
+      <c r="K16" s="243"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
@@ -9379,11 +9379,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="233"/>
+      <c r="G17" s="239"/>
+      <c r="H17" s="240"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="243"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9394,11 +9394,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="232"/>
-      <c r="K18" s="233"/>
+      <c r="G18" s="239"/>
+      <c r="H18" s="240"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="243"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9409,11 +9409,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="233"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="240"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="243"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A20" s="33">
@@ -9424,11 +9424,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="233"/>
+      <c r="G20" s="239"/>
+      <c r="H20" s="240"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="242"/>
+      <c r="K20" s="243"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
@@ -9439,11 +9439,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="232"/>
-      <c r="K21" s="233"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="242"/>
+      <c r="K21" s="243"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9454,11 +9454,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="232"/>
-      <c r="K22" s="233"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="242"/>
+      <c r="K22" s="243"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9469,11 +9469,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="232"/>
-      <c r="K23" s="233"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="243"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9484,11 +9484,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="233"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="242"/>
+      <c r="K24" s="243"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9499,11 +9499,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="233"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="241"/>
+      <c r="J25" s="242"/>
+      <c r="K25" s="243"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9514,11 +9514,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="233"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="241"/>
+      <c r="J26" s="242"/>
+      <c r="K26" s="243"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9529,11 +9529,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="233"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="198"/>
+      <c r="I27" s="241"/>
+      <c r="J27" s="242"/>
+      <c r="K27" s="243"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9544,11 +9544,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="232"/>
-      <c r="K28" s="233"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="241"/>
+      <c r="J28" s="242"/>
+      <c r="K28" s="243"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A29" s="33">
@@ -9559,11 +9559,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="233"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="241"/>
+      <c r="J29" s="242"/>
+      <c r="K29" s="243"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9574,11 +9574,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="233"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="241"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="243"/>
     </row>
     <row r="31" spans="1:19" ht="11.25">
       <c r="A31" s="33">
@@ -9589,11 +9589,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="232"/>
-      <c r="K31" s="233"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="241"/>
+      <c r="J31" s="242"/>
+      <c r="K31" s="243"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
@@ -9611,11 +9611,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="232"/>
-      <c r="K32" s="233"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="241"/>
+      <c r="J32" s="242"/>
+      <c r="K32" s="243"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9633,11 +9633,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="233"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="241"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="243"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9655,11 +9655,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="232"/>
-      <c r="K34" s="233"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="241"/>
+      <c r="J34" s="242"/>
+      <c r="K34" s="243"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9677,11 +9677,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="202"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="232"/>
-      <c r="K35" s="233"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="241"/>
+      <c r="J35" s="242"/>
+      <c r="K35" s="243"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9699,11 +9699,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="231"/>
-      <c r="J36" s="232"/>
-      <c r="K36" s="233"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="241"/>
+      <c r="J36" s="242"/>
+      <c r="K36" s="243"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9721,11 +9721,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="232"/>
-      <c r="K37" s="233"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="241"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="243"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9743,11 +9743,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
-      <c r="K38" s="233"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="241"/>
+      <c r="J38" s="242"/>
+      <c r="K38" s="243"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9765,11 +9765,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="231"/>
-      <c r="J39" s="232"/>
-      <c r="K39" s="233"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="241"/>
+      <c r="J39" s="242"/>
+      <c r="K39" s="243"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9787,11 +9787,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="231"/>
-      <c r="J40" s="232"/>
-      <c r="K40" s="233"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="241"/>
+      <c r="J40" s="242"/>
+      <c r="K40" s="243"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9809,11 +9809,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="231"/>
-      <c r="J41" s="232"/>
-      <c r="K41" s="233"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="241"/>
+      <c r="J41" s="242"/>
+      <c r="K41" s="243"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9831,11 +9831,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="200"/>
-      <c r="H42" s="202"/>
-      <c r="I42" s="231"/>
-      <c r="J42" s="232"/>
-      <c r="K42" s="233"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="241"/>
+      <c r="J42" s="242"/>
+      <c r="K42" s="243"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9853,11 +9853,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="200"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="231"/>
-      <c r="J43" s="232"/>
-      <c r="K43" s="233"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="241"/>
+      <c r="J43" s="242"/>
+      <c r="K43" s="243"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9875,11 +9875,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="200"/>
-      <c r="H44" s="202"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="232"/>
-      <c r="K44" s="233"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="198"/>
+      <c r="I44" s="241"/>
+      <c r="J44" s="242"/>
+      <c r="K44" s="243"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9897,11 +9897,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="200"/>
-      <c r="H45" s="202"/>
-      <c r="I45" s="231"/>
-      <c r="J45" s="232"/>
-      <c r="K45" s="233"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="198"/>
+      <c r="I45" s="241"/>
+      <c r="J45" s="242"/>
+      <c r="K45" s="243"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9919,11 +9919,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="200"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="232"/>
-      <c r="K46" s="233"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="241"/>
+      <c r="J46" s="242"/>
+      <c r="K46" s="243"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9941,11 +9941,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="200"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="231"/>
-      <c r="J47" s="232"/>
-      <c r="K47" s="233"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="241"/>
+      <c r="J47" s="242"/>
+      <c r="K47" s="243"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9963,11 +9963,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="202"/>
-      <c r="I48" s="231"/>
-      <c r="J48" s="232"/>
-      <c r="K48" s="233"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="198"/>
+      <c r="I48" s="241"/>
+      <c r="J48" s="242"/>
+      <c r="K48" s="243"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9985,11 +9985,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="202"/>
-      <c r="I49" s="231"/>
-      <c r="J49" s="232"/>
-      <c r="K49" s="233"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="198"/>
+      <c r="I49" s="241"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="243"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10007,11 +10007,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="202"/>
-      <c r="I50" s="231"/>
-      <c r="J50" s="232"/>
-      <c r="K50" s="233"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="241"/>
+      <c r="J50" s="242"/>
+      <c r="K50" s="243"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10029,11 +10029,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="200"/>
-      <c r="H51" s="202"/>
-      <c r="I51" s="231"/>
-      <c r="J51" s="232"/>
-      <c r="K51" s="233"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="241"/>
+      <c r="J51" s="242"/>
+      <c r="K51" s="243"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10051,11 +10051,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="200"/>
-      <c r="H52" s="202"/>
-      <c r="I52" s="231"/>
-      <c r="J52" s="232"/>
-      <c r="K52" s="233"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="241"/>
+      <c r="J52" s="242"/>
+      <c r="K52" s="243"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10073,11 +10073,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="200"/>
-      <c r="H53" s="202"/>
-      <c r="I53" s="231"/>
-      <c r="J53" s="232"/>
-      <c r="K53" s="233"/>
+      <c r="G53" s="196"/>
+      <c r="H53" s="198"/>
+      <c r="I53" s="241"/>
+      <c r="J53" s="242"/>
+      <c r="K53" s="243"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10095,11 +10095,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="202"/>
-      <c r="I54" s="231"/>
-      <c r="J54" s="232"/>
-      <c r="K54" s="233"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="198"/>
+      <c r="I54" s="241"/>
+      <c r="J54" s="242"/>
+      <c r="K54" s="243"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10117,11 +10117,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="200"/>
-      <c r="H55" s="202"/>
-      <c r="I55" s="231"/>
-      <c r="J55" s="232"/>
-      <c r="K55" s="233"/>
+      <c r="G55" s="196"/>
+      <c r="H55" s="198"/>
+      <c r="I55" s="241"/>
+      <c r="J55" s="242"/>
+      <c r="K55" s="243"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10133,6 +10133,94 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="105">
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:A2"/>
@@ -10150,94 +10238,6 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F55">
@@ -10255,8 +10255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="H7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H8" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10284,24 +10284,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="246" t="str">
+      <c r="J1" s="250" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="246"/>
+      <c r="K1" s="250"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10326,22 +10326,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="246" t="str">
+      <c r="J2" s="250" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="246"/>
+      <c r="K2" s="250"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10396,12 +10396,12 @@
       <c r="J4" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="247" t="s">
+      <c r="K4" s="251" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="249"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="252"/>
+      <c r="N4" s="253"/>
       <c r="O4" s="147" t="s">
         <v>56</v>
       </c>
@@ -10441,12 +10441,12 @@
       <c r="J5" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="197" t="s">
+      <c r="K5" s="202" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="199"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="204"/>
       <c r="O5" s="121" t="s">
         <v>181</v>
       </c>
@@ -10488,12 +10488,12 @@
       <c r="J6" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="250" t="s">
+      <c r="K6" s="247" t="s">
         <v>194</v>
       </c>
-      <c r="L6" s="251"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="252"/>
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249"/>
       <c r="O6" s="135" t="s">
         <v>193</v>
       </c>
@@ -10534,12 +10534,12 @@
       <c r="J7" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="250" t="s">
+      <c r="K7" s="247" t="s">
         <v>188</v>
       </c>
-      <c r="L7" s="251"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="252"/>
+      <c r="L7" s="248"/>
+      <c r="M7" s="248"/>
+      <c r="N7" s="249"/>
       <c r="O7" s="135" t="s">
         <v>189</v>
       </c>
@@ -10554,7 +10554,7 @@
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
-    <row r="8" spans="1:21" s="163" customFormat="1" ht="183.75" customHeight="1">
+    <row r="8" spans="1:21" s="163" customFormat="1" ht="316.5" customHeight="1">
       <c r="A8" s="150">
         <v>4</v>
       </c>
@@ -10585,17 +10585,17 @@
       <c r="J8" s="157" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="253" t="s">
-        <v>224</v>
-      </c>
-      <c r="L8" s="254"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="255"/>
+      <c r="K8" s="254" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="255"/>
+      <c r="M8" s="255"/>
+      <c r="N8" s="256"/>
       <c r="O8" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="P8" s="158" t="s">
         <v>226</v>
-      </c>
-      <c r="P8" s="158" t="s">
-        <v>227</v>
       </c>
       <c r="Q8" s="156" t="s">
         <v>214</v>
@@ -10604,7 +10604,7 @@
         <v>215</v>
       </c>
       <c r="S8" s="159" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T8" s="162"/>
       <c r="U8" s="162"/>
@@ -10622,10 +10622,10 @@
       <c r="H9" s="169"/>
       <c r="I9" s="169"/>
       <c r="J9" s="170"/>
-      <c r="K9" s="256"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="258"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="258"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="259"/>
       <c r="O9" s="171"/>
       <c r="P9" s="171"/>
       <c r="Q9" s="169"/>
@@ -10647,10 +10647,10 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="232"/>
-      <c r="M10" s="232"/>
-      <c r="N10" s="233"/>
+      <c r="K10" s="241"/>
+      <c r="L10" s="242"/>
+      <c r="M10" s="242"/>
+      <c r="N10" s="243"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
@@ -10672,10 +10672,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="78"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="244"/>
-      <c r="M11" s="244"/>
-      <c r="N11" s="245"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="245"/>
+      <c r="N11" s="246"/>
       <c r="O11" s="85"/>
       <c r="P11" s="85"/>
       <c r="Q11" s="74"/>
@@ -10697,10 +10697,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="78"/>
-      <c r="K12" s="243"/>
-      <c r="L12" s="244"/>
-      <c r="M12" s="244"/>
-      <c r="N12" s="245"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="245"/>
+      <c r="N12" s="246"/>
       <c r="O12" s="81"/>
       <c r="P12" s="81"/>
       <c r="Q12" s="74"/>
@@ -10722,10 +10722,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="78"/>
-      <c r="K13" s="243"/>
-      <c r="L13" s="244"/>
-      <c r="M13" s="244"/>
-      <c r="N13" s="245"/>
+      <c r="K13" s="244"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="246"/>
       <c r="O13" s="81"/>
       <c r="P13" s="81"/>
       <c r="Q13" s="74"/>
@@ -10747,10 +10747,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="78"/>
-      <c r="K14" s="243"/>
-      <c r="L14" s="244"/>
-      <c r="M14" s="244"/>
-      <c r="N14" s="245"/>
+      <c r="K14" s="244"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="245"/>
+      <c r="N14" s="246"/>
       <c r="O14" s="77"/>
       <c r="P14" s="77"/>
       <c r="Q14" s="74"/>
@@ -10772,10 +10772,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="78"/>
-      <c r="K15" s="243"/>
-      <c r="L15" s="244"/>
-      <c r="M15" s="244"/>
-      <c r="N15" s="245"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="246"/>
       <c r="O15" s="77"/>
       <c r="P15" s="77"/>
       <c r="Q15" s="74"/>
@@ -10797,10 +10797,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="243"/>
-      <c r="L16" s="244"/>
-      <c r="M16" s="244"/>
-      <c r="N16" s="245"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
+      <c r="M16" s="245"/>
+      <c r="N16" s="246"/>
       <c r="O16" s="70"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="74"/>
@@ -10822,10 +10822,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="243"/>
-      <c r="L17" s="244"/>
-      <c r="M17" s="244"/>
-      <c r="N17" s="245"/>
+      <c r="K17" s="244"/>
+      <c r="L17" s="245"/>
+      <c r="M17" s="245"/>
+      <c r="N17" s="246"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="74"/>
@@ -10847,10 +10847,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="244"/>
-      <c r="M18" s="244"/>
-      <c r="N18" s="245"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="245"/>
+      <c r="N18" s="246"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="74"/>
@@ -10872,10 +10872,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="243"/>
-      <c r="L19" s="244"/>
-      <c r="M19" s="244"/>
-      <c r="N19" s="245"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="245"/>
+      <c r="N19" s="246"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="74"/>
@@ -10897,10 +10897,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="243"/>
-      <c r="L20" s="244"/>
-      <c r="M20" s="244"/>
-      <c r="N20" s="245"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="245"/>
+      <c r="N20" s="246"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="74"/>
@@ -10922,10 +10922,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="243"/>
-      <c r="L21" s="244"/>
-      <c r="M21" s="244"/>
-      <c r="N21" s="245"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="245"/>
+      <c r="M21" s="245"/>
+      <c r="N21" s="246"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="74"/>
@@ -10947,10 +10947,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="243"/>
-      <c r="L22" s="244"/>
-      <c r="M22" s="244"/>
-      <c r="N22" s="245"/>
+      <c r="K22" s="244"/>
+      <c r="L22" s="245"/>
+      <c r="M22" s="245"/>
+      <c r="N22" s="246"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="74"/>
@@ -10972,10 +10972,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="243"/>
-      <c r="L23" s="244"/>
-      <c r="M23" s="244"/>
-      <c r="N23" s="245"/>
+      <c r="K23" s="244"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="245"/>
+      <c r="N23" s="246"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="74"/>
@@ -10997,10 +10997,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="243"/>
-      <c r="L24" s="244"/>
-      <c r="M24" s="244"/>
-      <c r="N24" s="245"/>
+      <c r="K24" s="244"/>
+      <c r="L24" s="245"/>
+      <c r="M24" s="245"/>
+      <c r="N24" s="246"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="74"/>
@@ -11022,10 +11022,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="243"/>
-      <c r="L25" s="244"/>
-      <c r="M25" s="244"/>
-      <c r="N25" s="245"/>
+      <c r="K25" s="244"/>
+      <c r="L25" s="245"/>
+      <c r="M25" s="245"/>
+      <c r="N25" s="246"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="74"/>
@@ -11047,10 +11047,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="243"/>
-      <c r="L26" s="244"/>
-      <c r="M26" s="244"/>
-      <c r="N26" s="245"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="245"/>
+      <c r="M26" s="245"/>
+      <c r="N26" s="246"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="74"/>
@@ -11072,10 +11072,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="243"/>
-      <c r="L27" s="244"/>
-      <c r="M27" s="244"/>
-      <c r="N27" s="245"/>
+      <c r="K27" s="244"/>
+      <c r="L27" s="245"/>
+      <c r="M27" s="245"/>
+      <c r="N27" s="246"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="74"/>
@@ -11097,10 +11097,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="243"/>
-      <c r="L28" s="244"/>
-      <c r="M28" s="244"/>
-      <c r="N28" s="245"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="245"/>
+      <c r="M28" s="245"/>
+      <c r="N28" s="246"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="74"/>
@@ -11122,10 +11122,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="243"/>
-      <c r="L29" s="244"/>
-      <c r="M29" s="244"/>
-      <c r="N29" s="245"/>
+      <c r="K29" s="244"/>
+      <c r="L29" s="245"/>
+      <c r="M29" s="245"/>
+      <c r="N29" s="246"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="74"/>
@@ -11147,10 +11147,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="243"/>
-      <c r="L30" s="244"/>
-      <c r="M30" s="244"/>
-      <c r="N30" s="245"/>
+      <c r="K30" s="244"/>
+      <c r="L30" s="245"/>
+      <c r="M30" s="245"/>
+      <c r="N30" s="246"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="74"/>
@@ -11172,10 +11172,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="243"/>
-      <c r="L31" s="244"/>
-      <c r="M31" s="244"/>
-      <c r="N31" s="245"/>
+      <c r="K31" s="244"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="245"/>
+      <c r="N31" s="246"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="74"/>
@@ -11197,10 +11197,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="243"/>
-      <c r="L32" s="244"/>
-      <c r="M32" s="244"/>
-      <c r="N32" s="245"/>
+      <c r="K32" s="244"/>
+      <c r="L32" s="245"/>
+      <c r="M32" s="245"/>
+      <c r="N32" s="246"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="74"/>
@@ -11222,10 +11222,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="243"/>
-      <c r="L33" s="244"/>
-      <c r="M33" s="244"/>
-      <c r="N33" s="245"/>
+      <c r="K33" s="244"/>
+      <c r="L33" s="245"/>
+      <c r="M33" s="245"/>
+      <c r="N33" s="246"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="74"/>
@@ -11247,10 +11247,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="78"/>
-      <c r="K34" s="243"/>
-      <c r="L34" s="244"/>
-      <c r="M34" s="244"/>
-      <c r="N34" s="245"/>
+      <c r="K34" s="244"/>
+      <c r="L34" s="245"/>
+      <c r="M34" s="245"/>
+      <c r="N34" s="246"/>
       <c r="O34" s="81"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="74"/>
@@ -11272,10 +11272,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="243"/>
-      <c r="L35" s="244"/>
-      <c r="M35" s="244"/>
-      <c r="N35" s="245"/>
+      <c r="K35" s="244"/>
+      <c r="L35" s="245"/>
+      <c r="M35" s="245"/>
+      <c r="N35" s="246"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="74"/>
@@ -11297,10 +11297,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="243"/>
-      <c r="L36" s="244"/>
-      <c r="M36" s="244"/>
-      <c r="N36" s="245"/>
+      <c r="K36" s="244"/>
+      <c r="L36" s="245"/>
+      <c r="M36" s="245"/>
+      <c r="N36" s="246"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="74"/>
@@ -11322,10 +11322,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="243"/>
-      <c r="L37" s="244"/>
-      <c r="M37" s="244"/>
-      <c r="N37" s="245"/>
+      <c r="K37" s="244"/>
+      <c r="L37" s="245"/>
+      <c r="M37" s="245"/>
+      <c r="N37" s="246"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="74"/>
@@ -11347,10 +11347,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="243"/>
-      <c r="L38" s="244"/>
-      <c r="M38" s="244"/>
-      <c r="N38" s="245"/>
+      <c r="K38" s="244"/>
+      <c r="L38" s="245"/>
+      <c r="M38" s="245"/>
+      <c r="N38" s="246"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="74"/>
@@ -11372,10 +11372,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="243"/>
-      <c r="L39" s="244"/>
-      <c r="M39" s="244"/>
-      <c r="N39" s="245"/>
+      <c r="K39" s="244"/>
+      <c r="L39" s="245"/>
+      <c r="M39" s="245"/>
+      <c r="N39" s="246"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="74"/>
@@ -11397,10 +11397,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="243"/>
-      <c r="L40" s="244"/>
-      <c r="M40" s="244"/>
-      <c r="N40" s="245"/>
+      <c r="K40" s="244"/>
+      <c r="L40" s="245"/>
+      <c r="M40" s="245"/>
+      <c r="N40" s="246"/>
       <c r="O40" s="72"/>
       <c r="P40" s="72"/>
       <c r="Q40" s="74"/>
@@ -11422,10 +11422,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="243"/>
-      <c r="L41" s="244"/>
-      <c r="M41" s="244"/>
-      <c r="N41" s="245"/>
+      <c r="K41" s="244"/>
+      <c r="L41" s="245"/>
+      <c r="M41" s="245"/>
+      <c r="N41" s="246"/>
       <c r="O41" s="72"/>
       <c r="P41" s="72"/>
       <c r="Q41" s="74"/>
@@ -11447,10 +11447,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="243"/>
-      <c r="L42" s="244"/>
-      <c r="M42" s="244"/>
-      <c r="N42" s="245"/>
+      <c r="K42" s="244"/>
+      <c r="L42" s="245"/>
+      <c r="M42" s="245"/>
+      <c r="N42" s="246"/>
       <c r="O42" s="72"/>
       <c r="P42" s="72"/>
       <c r="Q42" s="74"/>
@@ -11472,10 +11472,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="243"/>
-      <c r="L43" s="244"/>
-      <c r="M43" s="244"/>
-      <c r="N43" s="245"/>
+      <c r="K43" s="244"/>
+      <c r="L43" s="245"/>
+      <c r="M43" s="245"/>
+      <c r="N43" s="246"/>
       <c r="O43" s="72"/>
       <c r="P43" s="72"/>
       <c r="Q43" s="74"/>
@@ -11497,10 +11497,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="243"/>
-      <c r="L44" s="244"/>
-      <c r="M44" s="244"/>
-      <c r="N44" s="245"/>
+      <c r="K44" s="244"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
+      <c r="N44" s="246"/>
       <c r="O44" s="72"/>
       <c r="P44" s="72"/>
       <c r="Q44" s="74"/>
@@ -11522,10 +11522,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="243"/>
-      <c r="L45" s="244"/>
-      <c r="M45" s="244"/>
-      <c r="N45" s="245"/>
+      <c r="K45" s="244"/>
+      <c r="L45" s="245"/>
+      <c r="M45" s="245"/>
+      <c r="N45" s="246"/>
       <c r="O45" s="72"/>
       <c r="P45" s="72"/>
       <c r="Q45" s="74"/>
@@ -11547,10 +11547,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="243"/>
-      <c r="L46" s="244"/>
-      <c r="M46" s="244"/>
-      <c r="N46" s="245"/>
+      <c r="K46" s="244"/>
+      <c r="L46" s="245"/>
+      <c r="M46" s="245"/>
+      <c r="N46" s="246"/>
       <c r="O46" s="72"/>
       <c r="P46" s="72"/>
       <c r="Q46" s="74"/>
@@ -11572,10 +11572,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="243"/>
-      <c r="L47" s="244"/>
-      <c r="M47" s="244"/>
-      <c r="N47" s="245"/>
+      <c r="K47" s="244"/>
+      <c r="L47" s="245"/>
+      <c r="M47" s="245"/>
+      <c r="N47" s="246"/>
       <c r="O47" s="72"/>
       <c r="P47" s="72"/>
       <c r="Q47" s="74"/>
@@ -11597,10 +11597,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="243"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="244"/>
-      <c r="N48" s="245"/>
+      <c r="K48" s="244"/>
+      <c r="L48" s="245"/>
+      <c r="M48" s="245"/>
+      <c r="N48" s="246"/>
       <c r="O48" s="72"/>
       <c r="P48" s="72"/>
       <c r="Q48" s="74"/>
@@ -11622,10 +11622,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="243"/>
-      <c r="L49" s="244"/>
-      <c r="M49" s="244"/>
-      <c r="N49" s="245"/>
+      <c r="K49" s="244"/>
+      <c r="L49" s="245"/>
+      <c r="M49" s="245"/>
+      <c r="N49" s="246"/>
       <c r="O49" s="72"/>
       <c r="P49" s="72"/>
       <c r="Q49" s="74"/>
@@ -11647,10 +11647,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="243"/>
-      <c r="L50" s="244"/>
-      <c r="M50" s="244"/>
-      <c r="N50" s="245"/>
+      <c r="K50" s="244"/>
+      <c r="L50" s="245"/>
+      <c r="M50" s="245"/>
+      <c r="N50" s="246"/>
       <c r="O50" s="72"/>
       <c r="P50" s="72"/>
       <c r="Q50" s="74"/>
@@ -11672,10 +11672,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="243"/>
-      <c r="L51" s="244"/>
-      <c r="M51" s="244"/>
-      <c r="N51" s="245"/>
+      <c r="K51" s="244"/>
+      <c r="L51" s="245"/>
+      <c r="M51" s="245"/>
+      <c r="N51" s="246"/>
       <c r="O51" s="72"/>
       <c r="P51" s="72"/>
       <c r="Q51" s="74"/>
@@ -11697,10 +11697,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="243"/>
-      <c r="L52" s="244"/>
-      <c r="M52" s="244"/>
-      <c r="N52" s="245"/>
+      <c r="K52" s="244"/>
+      <c r="L52" s="245"/>
+      <c r="M52" s="245"/>
+      <c r="N52" s="246"/>
       <c r="O52" s="72"/>
       <c r="P52" s="72"/>
       <c r="Q52" s="74"/>
@@ -11722,10 +11722,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="243"/>
-      <c r="L53" s="244"/>
-      <c r="M53" s="244"/>
-      <c r="N53" s="245"/>
+      <c r="K53" s="244"/>
+      <c r="L53" s="245"/>
+      <c r="M53" s="245"/>
+      <c r="N53" s="246"/>
       <c r="O53" s="72"/>
       <c r="P53" s="72"/>
       <c r="Q53" s="74"/>
@@ -11747,10 +11747,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="243"/>
-      <c r="L54" s="244"/>
-      <c r="M54" s="244"/>
-      <c r="N54" s="245"/>
+      <c r="K54" s="244"/>
+      <c r="L54" s="245"/>
+      <c r="M54" s="245"/>
+      <c r="N54" s="246"/>
       <c r="O54" s="72"/>
       <c r="P54" s="72"/>
       <c r="Q54" s="74"/>
@@ -11772,10 +11772,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="243"/>
-      <c r="L55" s="244"/>
-      <c r="M55" s="244"/>
-      <c r="N55" s="245"/>
+      <c r="K55" s="244"/>
+      <c r="L55" s="245"/>
+      <c r="M55" s="245"/>
+      <c r="N55" s="246"/>
       <c r="O55" s="72"/>
       <c r="P55" s="72"/>
       <c r="Q55" s="74"/>
@@ -11797,10 +11797,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="243"/>
-      <c r="L56" s="244"/>
-      <c r="M56" s="244"/>
-      <c r="N56" s="245"/>
+      <c r="K56" s="244"/>
+      <c r="L56" s="245"/>
+      <c r="M56" s="245"/>
+      <c r="N56" s="246"/>
       <c r="O56" s="72"/>
       <c r="P56" s="72"/>
       <c r="Q56" s="74"/>
@@ -11822,10 +11822,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="243"/>
-      <c r="L57" s="244"/>
-      <c r="M57" s="244"/>
-      <c r="N57" s="245"/>
+      <c r="K57" s="244"/>
+      <c r="L57" s="245"/>
+      <c r="M57" s="245"/>
+      <c r="N57" s="246"/>
       <c r="O57" s="72"/>
       <c r="P57" s="72"/>
       <c r="Q57" s="74"/>
@@ -11847,10 +11847,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="243"/>
-      <c r="L58" s="244"/>
-      <c r="M58" s="244"/>
-      <c r="N58" s="245"/>
+      <c r="K58" s="244"/>
+      <c r="L58" s="245"/>
+      <c r="M58" s="245"/>
+      <c r="N58" s="246"/>
       <c r="O58" s="72"/>
       <c r="P58" s="72"/>
       <c r="Q58" s="74"/>
@@ -11872,10 +11872,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="243"/>
-      <c r="L59" s="244"/>
-      <c r="M59" s="244"/>
-      <c r="N59" s="245"/>
+      <c r="K59" s="244"/>
+      <c r="L59" s="245"/>
+      <c r="M59" s="245"/>
+      <c r="N59" s="246"/>
       <c r="O59" s="72"/>
       <c r="P59" s="72"/>
       <c r="Q59" s="74"/>
@@ -11897,10 +11897,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="243"/>
-      <c r="L60" s="244"/>
-      <c r="M60" s="244"/>
-      <c r="N60" s="245"/>
+      <c r="K60" s="244"/>
+      <c r="L60" s="245"/>
+      <c r="M60" s="245"/>
+      <c r="N60" s="246"/>
       <c r="O60" s="72"/>
       <c r="P60" s="72"/>
       <c r="Q60" s="74"/>
@@ -11922,10 +11922,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="243"/>
-      <c r="L61" s="244"/>
-      <c r="M61" s="244"/>
-      <c r="N61" s="245"/>
+      <c r="K61" s="244"/>
+      <c r="L61" s="245"/>
+      <c r="M61" s="245"/>
+      <c r="N61" s="246"/>
       <c r="O61" s="72"/>
       <c r="P61" s="72"/>
       <c r="Q61" s="74"/>
@@ -11947,10 +11947,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="243"/>
-      <c r="L62" s="244"/>
-      <c r="M62" s="244"/>
-      <c r="N62" s="245"/>
+      <c r="K62" s="244"/>
+      <c r="L62" s="245"/>
+      <c r="M62" s="245"/>
+      <c r="N62" s="246"/>
       <c r="O62" s="80"/>
       <c r="P62" s="80"/>
       <c r="Q62" s="74"/>
@@ -11972,10 +11972,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="243"/>
-      <c r="L63" s="244"/>
-      <c r="M63" s="244"/>
-      <c r="N63" s="245"/>
+      <c r="K63" s="244"/>
+      <c r="L63" s="245"/>
+      <c r="M63" s="245"/>
+      <c r="N63" s="246"/>
       <c r="O63" s="80"/>
       <c r="P63" s="80"/>
       <c r="Q63" s="74"/>
@@ -11997,10 +11997,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="243"/>
-      <c r="L64" s="244"/>
-      <c r="M64" s="244"/>
-      <c r="N64" s="245"/>
+      <c r="K64" s="244"/>
+      <c r="L64" s="245"/>
+      <c r="M64" s="245"/>
+      <c r="N64" s="246"/>
       <c r="O64" s="80"/>
       <c r="P64" s="80"/>
       <c r="Q64" s="74"/>
@@ -12020,10 +12020,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="243"/>
-      <c r="L65" s="244"/>
-      <c r="M65" s="244"/>
-      <c r="N65" s="245"/>
+      <c r="K65" s="244"/>
+      <c r="L65" s="245"/>
+      <c r="M65" s="245"/>
+      <c r="N65" s="246"/>
       <c r="O65" s="80"/>
       <c r="P65" s="80"/>
       <c r="Q65" s="74"/>
@@ -12043,10 +12043,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="243"/>
-      <c r="L66" s="244"/>
-      <c r="M66" s="244"/>
-      <c r="N66" s="245"/>
+      <c r="K66" s="244"/>
+      <c r="L66" s="245"/>
+      <c r="M66" s="245"/>
+      <c r="N66" s="246"/>
       <c r="O66" s="80"/>
       <c r="P66" s="80"/>
       <c r="Q66" s="74"/>
@@ -12066,10 +12066,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="243"/>
-      <c r="L67" s="244"/>
-      <c r="M67" s="244"/>
-      <c r="N67" s="245"/>
+      <c r="K67" s="244"/>
+      <c r="L67" s="245"/>
+      <c r="M67" s="245"/>
+      <c r="N67" s="246"/>
       <c r="O67" s="80"/>
       <c r="P67" s="80"/>
       <c r="Q67" s="74"/>
@@ -12089,10 +12089,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="243"/>
-      <c r="L68" s="244"/>
-      <c r="M68" s="244"/>
-      <c r="N68" s="245"/>
+      <c r="K68" s="244"/>
+      <c r="L68" s="245"/>
+      <c r="M68" s="245"/>
+      <c r="N68" s="246"/>
       <c r="O68" s="80"/>
       <c r="P68" s="80"/>
       <c r="Q68" s="74"/>
@@ -12112,10 +12112,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="243"/>
-      <c r="L69" s="244"/>
-      <c r="M69" s="244"/>
-      <c r="N69" s="245"/>
+      <c r="K69" s="244"/>
+      <c r="L69" s="245"/>
+      <c r="M69" s="245"/>
+      <c r="N69" s="246"/>
       <c r="O69" s="80"/>
       <c r="P69" s="80"/>
       <c r="Q69" s="74"/>
@@ -12135,10 +12135,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="243"/>
-      <c r="L70" s="244"/>
-      <c r="M70" s="244"/>
-      <c r="N70" s="245"/>
+      <c r="K70" s="244"/>
+      <c r="L70" s="245"/>
+      <c r="M70" s="245"/>
+      <c r="N70" s="246"/>
       <c r="O70" s="80"/>
       <c r="P70" s="80"/>
       <c r="Q70" s="74"/>
@@ -12158,10 +12158,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="243"/>
-      <c r="L71" s="244"/>
-      <c r="M71" s="244"/>
-      <c r="N71" s="245"/>
+      <c r="K71" s="244"/>
+      <c r="L71" s="245"/>
+      <c r="M71" s="245"/>
+      <c r="N71" s="246"/>
       <c r="O71" s="80"/>
       <c r="P71" s="80"/>
       <c r="Q71" s="74"/>
@@ -12181,10 +12181,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="243"/>
-      <c r="L72" s="244"/>
-      <c r="M72" s="244"/>
-      <c r="N72" s="245"/>
+      <c r="K72" s="244"/>
+      <c r="L72" s="245"/>
+      <c r="M72" s="245"/>
+      <c r="N72" s="246"/>
       <c r="O72" s="80"/>
       <c r="P72" s="80"/>
       <c r="Q72" s="74"/>
@@ -12204,10 +12204,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="243"/>
-      <c r="L73" s="244"/>
-      <c r="M73" s="244"/>
-      <c r="N73" s="245"/>
+      <c r="K73" s="244"/>
+      <c r="L73" s="245"/>
+      <c r="M73" s="245"/>
+      <c r="N73" s="246"/>
       <c r="O73" s="80"/>
       <c r="P73" s="80"/>
       <c r="Q73" s="74"/>
@@ -12227,10 +12227,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="243"/>
-      <c r="L74" s="244"/>
-      <c r="M74" s="244"/>
-      <c r="N74" s="245"/>
+      <c r="K74" s="244"/>
+      <c r="L74" s="245"/>
+      <c r="M74" s="245"/>
+      <c r="N74" s="246"/>
       <c r="O74" s="80"/>
       <c r="P74" s="80"/>
       <c r="Q74" s="74"/>
@@ -12250,10 +12250,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="243"/>
-      <c r="L75" s="244"/>
-      <c r="M75" s="244"/>
-      <c r="N75" s="245"/>
+      <c r="K75" s="244"/>
+      <c r="L75" s="245"/>
+      <c r="M75" s="245"/>
+      <c r="N75" s="246"/>
       <c r="O75" s="80"/>
       <c r="P75" s="80"/>
       <c r="Q75" s="74"/>
@@ -12273,10 +12273,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="243"/>
-      <c r="L76" s="244"/>
-      <c r="M76" s="244"/>
-      <c r="N76" s="245"/>
+      <c r="K76" s="244"/>
+      <c r="L76" s="245"/>
+      <c r="M76" s="245"/>
+      <c r="N76" s="246"/>
       <c r="O76" s="80"/>
       <c r="P76" s="80"/>
       <c r="Q76" s="74"/>
@@ -12296,10 +12296,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="243"/>
-      <c r="L77" s="244"/>
-      <c r="M77" s="244"/>
-      <c r="N77" s="245"/>
+      <c r="K77" s="244"/>
+      <c r="L77" s="245"/>
+      <c r="M77" s="245"/>
+      <c r="N77" s="246"/>
       <c r="O77" s="80"/>
       <c r="P77" s="80"/>
       <c r="Q77" s="74"/>
@@ -12319,10 +12319,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="243"/>
-      <c r="L78" s="244"/>
-      <c r="M78" s="244"/>
-      <c r="N78" s="245"/>
+      <c r="K78" s="244"/>
+      <c r="L78" s="245"/>
+      <c r="M78" s="245"/>
+      <c r="N78" s="246"/>
       <c r="O78" s="80"/>
       <c r="P78" s="80"/>
       <c r="Q78" s="74"/>
@@ -12342,10 +12342,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="243"/>
-      <c r="L79" s="244"/>
-      <c r="M79" s="244"/>
-      <c r="N79" s="245"/>
+      <c r="K79" s="244"/>
+      <c r="L79" s="245"/>
+      <c r="M79" s="245"/>
+      <c r="N79" s="246"/>
       <c r="O79" s="80"/>
       <c r="P79" s="80"/>
       <c r="Q79" s="74"/>
@@ -12365,10 +12365,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="243"/>
-      <c r="L80" s="244"/>
-      <c r="M80" s="244"/>
-      <c r="N80" s="245"/>
+      <c r="K80" s="244"/>
+      <c r="L80" s="245"/>
+      <c r="M80" s="245"/>
+      <c r="N80" s="246"/>
       <c r="O80" s="80"/>
       <c r="P80" s="80"/>
       <c r="Q80" s="74"/>
@@ -12388,10 +12388,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="243"/>
-      <c r="L81" s="244"/>
-      <c r="M81" s="244"/>
-      <c r="N81" s="245"/>
+      <c r="K81" s="244"/>
+      <c r="L81" s="245"/>
+      <c r="M81" s="245"/>
+      <c r="N81" s="246"/>
       <c r="O81" s="80"/>
       <c r="P81" s="80"/>
       <c r="Q81" s="74"/>
@@ -12411,10 +12411,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="243"/>
-      <c r="L82" s="244"/>
-      <c r="M82" s="244"/>
-      <c r="N82" s="245"/>
+      <c r="K82" s="244"/>
+      <c r="L82" s="245"/>
+      <c r="M82" s="245"/>
+      <c r="N82" s="246"/>
       <c r="O82" s="80"/>
       <c r="P82" s="80"/>
       <c r="Q82" s="74"/>
@@ -12434,10 +12434,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="243"/>
-      <c r="L83" s="244"/>
-      <c r="M83" s="244"/>
-      <c r="N83" s="245"/>
+      <c r="K83" s="244"/>
+      <c r="L83" s="245"/>
+      <c r="M83" s="245"/>
+      <c r="N83" s="246"/>
       <c r="O83" s="80"/>
       <c r="P83" s="80"/>
       <c r="Q83" s="74"/>
@@ -12457,10 +12457,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="243"/>
-      <c r="L84" s="244"/>
-      <c r="M84" s="244"/>
-      <c r="N84" s="245"/>
+      <c r="K84" s="244"/>
+      <c r="L84" s="245"/>
+      <c r="M84" s="245"/>
+      <c r="N84" s="246"/>
       <c r="O84" s="80"/>
       <c r="P84" s="80"/>
       <c r="Q84" s="74"/>
@@ -12480,10 +12480,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="243"/>
-      <c r="L85" s="244"/>
-      <c r="M85" s="244"/>
-      <c r="N85" s="245"/>
+      <c r="K85" s="244"/>
+      <c r="L85" s="245"/>
+      <c r="M85" s="245"/>
+      <c r="N85" s="246"/>
       <c r="O85" s="80"/>
       <c r="P85" s="80"/>
       <c r="Q85" s="74"/>
@@ -12503,10 +12503,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="243"/>
-      <c r="L86" s="244"/>
-      <c r="M86" s="244"/>
-      <c r="N86" s="245"/>
+      <c r="K86" s="244"/>
+      <c r="L86" s="245"/>
+      <c r="M86" s="245"/>
+      <c r="N86" s="246"/>
       <c r="O86" s="80"/>
       <c r="P86" s="80"/>
       <c r="Q86" s="74"/>
@@ -12526,10 +12526,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="243"/>
-      <c r="L87" s="244"/>
-      <c r="M87" s="244"/>
-      <c r="N87" s="245"/>
+      <c r="K87" s="244"/>
+      <c r="L87" s="245"/>
+      <c r="M87" s="245"/>
+      <c r="N87" s="246"/>
       <c r="O87" s="80"/>
       <c r="P87" s="80"/>
       <c r="Q87" s="74"/>
@@ -12549,10 +12549,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="243"/>
-      <c r="L88" s="244"/>
-      <c r="M88" s="244"/>
-      <c r="N88" s="245"/>
+      <c r="K88" s="244"/>
+      <c r="L88" s="245"/>
+      <c r="M88" s="245"/>
+      <c r="N88" s="246"/>
       <c r="O88" s="80"/>
       <c r="P88" s="80"/>
       <c r="Q88" s="74"/>
@@ -12572,10 +12572,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="243"/>
-      <c r="L89" s="244"/>
-      <c r="M89" s="244"/>
-      <c r="N89" s="245"/>
+      <c r="K89" s="244"/>
+      <c r="L89" s="245"/>
+      <c r="M89" s="245"/>
+      <c r="N89" s="246"/>
       <c r="O89" s="80"/>
       <c r="P89" s="80"/>
       <c r="Q89" s="74"/>
@@ -12595,10 +12595,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="243"/>
-      <c r="L90" s="244"/>
-      <c r="M90" s="244"/>
-      <c r="N90" s="245"/>
+      <c r="K90" s="244"/>
+      <c r="L90" s="245"/>
+      <c r="M90" s="245"/>
+      <c r="N90" s="246"/>
       <c r="O90" s="80"/>
       <c r="P90" s="80"/>
       <c r="Q90" s="74"/>
@@ -12618,10 +12618,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="243"/>
-      <c r="L91" s="244"/>
-      <c r="M91" s="244"/>
-      <c r="N91" s="245"/>
+      <c r="K91" s="244"/>
+      <c r="L91" s="245"/>
+      <c r="M91" s="245"/>
+      <c r="N91" s="246"/>
       <c r="O91" s="80"/>
       <c r="P91" s="80"/>
       <c r="Q91" s="74"/>
@@ -12641,10 +12641,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="243"/>
-      <c r="L92" s="244"/>
-      <c r="M92" s="244"/>
-      <c r="N92" s="245"/>
+      <c r="K92" s="244"/>
+      <c r="L92" s="245"/>
+      <c r="M92" s="245"/>
+      <c r="N92" s="246"/>
       <c r="O92" s="80"/>
       <c r="P92" s="80"/>
       <c r="Q92" s="74"/>
@@ -12664,10 +12664,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="243"/>
-      <c r="L93" s="244"/>
-      <c r="M93" s="244"/>
-      <c r="N93" s="245"/>
+      <c r="K93" s="244"/>
+      <c r="L93" s="245"/>
+      <c r="M93" s="245"/>
+      <c r="N93" s="246"/>
       <c r="O93" s="80"/>
       <c r="P93" s="80"/>
       <c r="Q93" s="74"/>
@@ -12687,10 +12687,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="243"/>
-      <c r="L94" s="244"/>
-      <c r="M94" s="244"/>
-      <c r="N94" s="245"/>
+      <c r="K94" s="244"/>
+      <c r="L94" s="245"/>
+      <c r="M94" s="245"/>
+      <c r="N94" s="246"/>
       <c r="O94" s="80"/>
       <c r="P94" s="80"/>
       <c r="Q94" s="74"/>
@@ -12703,28 +12703,62 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="K6:N6"/>
@@ -12741,62 +12775,28 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q9 Q11:Q94"/>
@@ -12825,7 +12825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -12842,10 +12842,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
+      <c r="B1" s="205"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12873,8 +12873,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>217</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
@@ -13284,7 +13284,7 @@
     <row r="33" spans="1:10" s="125" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="164"/>
       <c r="B33" s="167" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" s="165"/>
       <c r="D33" s="165"/>
@@ -14084,10 +14084,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203"/>
+      <c r="B1" s="205"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14115,8 +14115,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
